--- a/tests/test1/d20/ЛМ, 0.2.xlsx
+++ b/tests/test1/d20/ЛМ, 0.2.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002663599999998212</v>
+        <v>0.004302299999999093</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002597800000003758</v>
+        <v>0.00253330000000318</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002110000000001833</v>
+        <v>0.002045400000000086</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.003087999999998203</v>
+        <v>0.002463300000002278</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002371300000000076</v>
+        <v>0.002406700000001649</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002101199999998471</v>
+        <v>0.004361199999998178</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002553800000001161</v>
+        <v>0.002190299999995204</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002093500000000859</v>
+        <v>0.001967100000001665</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.0109224999999995</v>
+        <v>0.005221399999996379</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.00199649999999707</v>
+        <v>0.001764899999997738</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.003998799999997971</v>
+        <v>0.001996699999999407</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002153800000002093</v>
+        <v>0.002057499999999379</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002235300000002383</v>
+        <v>0.002001100000001088</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002667600000002324</v>
+        <v>0.002292199999999411</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002602299999999502</v>
+        <v>0.003586800000000778</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.00207319999999811</v>
+        <v>0.001971400000002177</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.003701700000000585</v>
+        <v>0.001954300000001297</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002080300000002921</v>
+        <v>0.002000699999996414</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002901600000001281</v>
+        <v>0.002469499999996572</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002121200000004819</v>
+        <v>0.002018599999999537</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.00293039999999678</v>
+        <v>0.002625000000001876</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001859099999997227</v>
+        <v>0.003118600000000527</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002296399999998755</v>
+        <v>0.002022499999995375</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.00383109999999931</v>
+        <v>0.002605500000001371</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002813100000004454</v>
+        <v>0.00370919999999586</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.004281599999998775</v>
+        <v>0.007017799999999852</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002083199999994179</v>
+        <v>0.002126799999999207</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002656000000001768</v>
+        <v>0.002558099999994567</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002588699999996891</v>
+        <v>0.00249090000000507</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002327600000000984</v>
+        <v>0.002413799999999355</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002371199999998908</v>
+        <v>0.002832699999999022</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.004484699999999009</v>
+        <v>0.002225799999997946</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.0024021999999988</v>
+        <v>0.002175899999997455</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002249100000000226</v>
+        <v>0.00197700000000367</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001921299999999349</v>
+        <v>0.001728999999997427</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002404699999999593</v>
+        <v>0.00402859999999805</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.004978799999996397</v>
+        <v>0.003339399999994441</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002392100000001562</v>
+        <v>0.002933299999995143</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.003344300000001965</v>
+        <v>0.002412200000001974</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.002866099999998539</v>
+        <v>0.00445689999999388</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002115500000002157</v>
+        <v>0.001965200000000777</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002181299999996611</v>
+        <v>0.001940799999999854</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002613699999997721</v>
+        <v>0.002454299999996579</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002302100000001417</v>
+        <v>0.001963600000003396</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002120599999997808</v>
+        <v>0.002019699999998181</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002943900000005328</v>
+        <v>0.001956900000003259</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.004305900000005636</v>
+        <v>0.005487399999999809</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002671800000001667</v>
+        <v>0.001947499999999991</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001889099999999644</v>
+        <v>0.001768800000000681</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002128399999996589</v>
+        <v>0.001996000000005438</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002427999999994768</v>
+        <v>0.002194299999999316</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002176200000000961</v>
+        <v>0.001997799999998051</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002759699999998588</v>
+        <v>0.00199450000000212</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.003239100000001827</v>
+        <v>0.004503400000004376</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.00278560000000283</v>
+        <v>0.002188699999997823</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002112799999999027</v>
+        <v>0.002651000000000181</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002100999999996134</v>
+        <v>0.001992200000003663</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.00192629999999383</v>
+        <v>0.001794900000000155</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00208549999999974</v>
+        <v>0.00198689999999857</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002773799999999937</v>
+        <v>0.002033099999998456</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002085100000002171</v>
+        <v>0.003465300000002003</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002359399999996015</v>
+        <v>0.001999800000000107</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001866199999994933</v>
+        <v>0.001740300000001582</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002505499999998051</v>
+        <v>0.002231099999995934</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.00263089999999977</v>
+        <v>0.002221199999993928</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002202500000002772</v>
+        <v>0.003601299999999696</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.00291710000000478</v>
+        <v>0.002025199999998506</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002919800000000805</v>
+        <v>0.00274209999999897</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002142599999999106</v>
+        <v>0.0020147000000037</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002499600000000157</v>
+        <v>0.002243299999996395</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.005763700000002814</v>
+        <v>0.005148300000001882</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002151900000001206</v>
+        <v>0.004679400000000555</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.00334020000000379</v>
+        <v>0.002814499999999498</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002548400000002005</v>
+        <v>0.002781800000001056</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.00188969999999955</v>
+        <v>0.00423539999999889</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002186500000000535</v>
+        <v>0.003752099999999814</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002369899999997926</v>
+        <v>0.004172699999998031</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.004293900000000406</v>
+        <v>0.00692139999999597</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001881000000004462</v>
+        <v>0.005023200000003669</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.00341619999999665</v>
+        <v>0.003029900000001362</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002725999999995565</v>
+        <v>0.003160600000001068</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002196499999996604</v>
+        <v>0.005744999999997447</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002230099999998458</v>
+        <v>0.003444700000002854</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.00213040000000575</v>
+        <v>0.003222999999998422</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002513000000000432</v>
+        <v>0.005563500000000943</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002362099999999145</v>
+        <v>0.004017400000002169</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002872299999999939</v>
+        <v>0.005775499999998601</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.004503599999999608</v>
+        <v>0.006922099999997045</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.003008800000003475</v>
+        <v>0.00534940000000006</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002382900000000632</v>
+        <v>0.005658099999998001</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002133000000000607</v>
+        <v>0.004213500000005865</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002172899999997924</v>
+        <v>0.002327399999998647</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.005197899999998867</v>
+        <v>0.008170999999997264</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002776500000003068</v>
+        <v>0.005979400000001078</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003629600000003563</v>
+        <v>0.008568399999994369</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002166600000002461</v>
+        <v>0.00462739999999684</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002137000000004718</v>
+        <v>0.005502499999998633</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.006597400000003972</v>
+        <v>0.02098850000000141</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.003221500000002209</v>
+        <v>0.01345640000000259</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002660899999995081</v>
+        <v>0.00540520000000555</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>

--- a/tests/test1/d20/ЛМ, 0.2.xlsx
+++ b/tests/test1/d20/ЛМ, 0.2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004302299999999093</v>
+        <v>0.004112999999989597</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.00253330000000318</v>
+        <v>0.003097600000003808</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002045400000000086</v>
+        <v>0.002381499999998482</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.002463300000002278</v>
+        <v>0.003200300000003153</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002406700000001649</v>
+        <v>0.002839900000012108</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004361199999998178</v>
+        <v>0.003261499999993589</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002190299999995204</v>
+        <v>0.003445400000003929</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001967100000001665</v>
+        <v>0.002267799999998488</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005221399999996379</v>
+        <v>0.009363199999995686</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001764899999997738</v>
+        <v>0.002887600000008206</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.001996699999999407</v>
+        <v>0.002830600000010008</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002057499999999379</v>
+        <v>0.005012199999995914</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002001100000001088</v>
+        <v>0.003848700000006033</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002292199999999411</v>
+        <v>0.003337999999999397</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003586800000000778</v>
+        <v>0.005337300000007872</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.001971400000002177</v>
+        <v>0.002194199999991042</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.001954300000001297</v>
+        <v>0.002250599999996439</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002000699999996414</v>
+        <v>0.005068800000003648</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.002469499999996572</v>
+        <v>0.005571600000010335</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002018599999999537</v>
+        <v>0.003683299999991618</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002625000000001876</v>
+        <v>0.004562899999996262</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.003118600000000527</v>
+        <v>0.004162300000004393</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002022499999995375</v>
+        <v>0.002223000000000752</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.002605500000001371</v>
+        <v>0.00506490000000781</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.00370919999999586</v>
+        <v>0.002993099999997639</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.007017799999999852</v>
+        <v>0.004320400000011659</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002126799999999207</v>
+        <v>0.004651300000006131</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.002558099999994567</v>
+        <v>0.006949599999998668</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.00249090000000507</v>
+        <v>0.004658000000006268</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002413799999999355</v>
+        <v>0.002519800000001737</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002832699999999022</v>
+        <v>0.004217900000000441</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002225799999997946</v>
+        <v>0.002460500000012189</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002175899999997455</v>
+        <v>0.002480399999996052</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.00197700000000367</v>
+        <v>0.002180699999996705</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001728999999997427</v>
+        <v>0.001897299999995994</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.00402859999999805</v>
+        <v>0.002427599999990093</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003339399999994441</v>
+        <v>0.003901800000008393</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002933299999995143</v>
+        <v>0.002441199999992705</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002412200000001974</v>
+        <v>0.002687000000008766</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.00445689999999388</v>
+        <v>0.004184199999997418</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.001965200000000777</v>
+        <v>0.002278399999994463</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.001940799999999854</v>
+        <v>0.003410200000004693</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002454299999996579</v>
+        <v>0.003052800000006073</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001963600000003396</v>
+        <v>0.002211299999999028</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002019699999998181</v>
+        <v>0.002244500000003313</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001956900000003259</v>
+        <v>0.002259199999997463</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.005487399999999809</v>
+        <v>0.004429299999998193</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001947499999999991</v>
+        <v>0.002278399999994463</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001768800000000681</v>
+        <v>0.001929000000004066</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001996000000005438</v>
+        <v>0.002208199999998328</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002194299999999316</v>
+        <v>0.002427600000004304</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.001997799999998051</v>
+        <v>0.003710099999992167</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.00199450000000212</v>
+        <v>0.002152999999992744</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.004503400000004376</v>
+        <v>0.004942499999998518</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002188699999997823</v>
+        <v>0.002413599999997018</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002651000000000181</v>
+        <v>0.002150799999995456</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001992200000003663</v>
+        <v>0.002244899999993777</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001794900000000155</v>
+        <v>0.001949400000000878</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00198689999999857</v>
+        <v>0.002260399999997276</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002033099999998456</v>
+        <v>0.003220699999999965</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.003465300000002003</v>
+        <v>0.002313299999997298</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.001999800000000107</v>
+        <v>0.002215700000007814</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001740300000001582</v>
+        <v>0.003711800000004928</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002231099999995934</v>
+        <v>0.002496100000001888</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002221199999993928</v>
+        <v>0.003582700000009709</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.003601299999999696</v>
+        <v>0.002298600000003148</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002025199999998506</v>
+        <v>0.002413399999994681</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.00274209999999897</v>
+        <v>0.003060500000003685</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.0020147000000037</v>
+        <v>0.002460600000006252</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002243299999996395</v>
+        <v>0.002518300000005524</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.005148300000001882</v>
+        <v>0.005681099999989669</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.004679400000000555</v>
+        <v>0.002233599999996727</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002814499999999498</v>
+        <v>0.002236899999999764</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002781800000001056</v>
+        <v>0.002505899999988515</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.00423539999999889</v>
+        <v>0.00211160000000632</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.003752099999999814</v>
+        <v>0.003882299999986571</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.004172699999998031</v>
+        <v>0.00311940000000277</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00692139999999597</v>
+        <v>0.005109200000006808</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.005023200000003669</v>
+        <v>0.002004400000004125</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003029900000001362</v>
+        <v>0.002586799999988898</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.003160600000001068</v>
+        <v>0.002910499999998706</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.005744999999997447</v>
+        <v>0.002315700000011134</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.003444700000002854</v>
+        <v>0.002306399999994824</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003222999999998422</v>
+        <v>0.002168299999993906</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.005563500000000943</v>
+        <v>0.001985200000007126</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.004017400000002169</v>
+        <v>0.002500800000007075</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.005775499999998601</v>
+        <v>0.003670200000001955</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.006922099999997045</v>
+        <v>0.004813699999999699</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00534940000000006</v>
+        <v>0.004337800000001835</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.005658099999998001</v>
+        <v>0.002431400000006079</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.004213500000005865</v>
+        <v>0.003411499999998568</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002327399999998647</v>
+        <v>0.002178200000003017</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.008170999999997264</v>
+        <v>0.00691009999999892</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.005979400000001078</v>
+        <v>0.002673799999996618</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.008568399999994369</v>
+        <v>0.005745000000004552</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.00462739999999684</v>
+        <v>0.002155500000000643</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.005502499999998633</v>
+        <v>0.002239400000007663</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.02098850000000141</v>
+        <v>0.005630600000003483</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.01345640000000259</v>
+        <v>0.004977400000001353</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.00540520000000555</v>
+        <v>0.002692099999990205</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>

--- a/tests/test1/d20/ЛМ, 0.2.xlsx
+++ b/tests/test1/d20/ЛМ, 0.2.xlsx
@@ -582,10 +582,10 @@
         <v>359.9535967812163</v>
       </c>
       <c r="F2" t="n">
-        <v>20.12543297093193</v>
+        <v>20.12543297093192</v>
       </c>
       <c r="G2" t="n">
-        <v>98.61709407917071</v>
+        <v>98.61709407917076</v>
       </c>
       <c r="H2" t="n">
         <v>11.72728132792582</v>
@@ -612,25 +612,25 @@
         <v>44.37475228711887</v>
       </c>
       <c r="P2" t="n">
-        <v>21.54581987581516</v>
+        <v>21.54581987581515</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01036242957285416</v>
+        <v>0.01036242957285398</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1601421501259199</v>
+        <v>0.1601421501258987</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1401372127511659</v>
+        <v>0.1401372127511488</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03667082231362082</v>
+        <v>0.03667082231362116</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03994494736968705</v>
+        <v>0.03994494736968693</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06420838578828453</v>
+        <v>0.06420838578827501</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004112999999989597</v>
+        <v>0.002131300000002057</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -691,28 +691,28 @@
         <v>25.60484930330038</v>
       </c>
       <c r="O3" t="n">
-        <v>34.91874560181181</v>
+        <v>34.9187456018118</v>
       </c>
       <c r="P3" t="n">
         <v>25.30968072734425</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0104092260773176</v>
+        <v>0.01040922607731693</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1519434545625936</v>
+        <v>0.1519434545625675</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1317413076989315</v>
+        <v>0.1317413076989066</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06744768240355652</v>
+        <v>0.06744768240354987</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03976116604185315</v>
+        <v>0.03976116604185301</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06338734964762519</v>
+        <v>0.06338734964763305</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.003097600000003808</v>
+        <v>0.002183500000001004</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>20.09282722943819</v>
       </c>
       <c r="G4" t="n">
-        <v>81.07236736869295</v>
+        <v>81.07236736869299</v>
       </c>
       <c r="H4" t="n">
-        <v>3.263949786596824</v>
+        <v>3.263949786596825</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -779,22 +779,22 @@
         <v>18.77587271514433</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00924720484070035</v>
+        <v>0.009247204840700398</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1010480766187809</v>
+        <v>0.1010480766187783</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04841769720617841</v>
+        <v>0.04841769720617898</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1175870244282888</v>
+        <v>0.1175870244282897</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04219492335841306</v>
+        <v>0.04219492335841311</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1168571297337407</v>
+        <v>0.1168571297337414</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002381499999998482</v>
+        <v>0.001590399999997771</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -858,25 +858,25 @@
         <v>44.21762981689974</v>
       </c>
       <c r="P5" t="n">
-        <v>20.88764926080122</v>
+        <v>20.88764926080123</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01003601518550242</v>
+        <v>0.01003601518550279</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1532551591839595</v>
+        <v>0.1532551591839824</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1330632062730825</v>
+        <v>0.1330632062731017</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03606793657433939</v>
+        <v>0.03606793657433951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04178309250841039</v>
+        <v>0.04178309250841034</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0798497568291332</v>
+        <v>0.07984975682913253</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.003200300000003153</v>
+        <v>0.001992700000016612</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>174.1982133904149</v>
       </c>
       <c r="H6" t="n">
-        <v>9.596130609827597</v>
+        <v>9.596130609827599</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>21.53153363356935</v>
       </c>
       <c r="P6" t="n">
-        <v>6.36153329058611</v>
+        <v>6.361533290586108</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00764501157989974</v>
+        <v>0.007645011579899784</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05303841225375747</v>
+        <v>0.05303841225375808</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02726514911495473</v>
+        <v>0.02726514911495435</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04886960299895407</v>
+        <v>0.04886960299895594</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03763682416161726</v>
+        <v>0.03763682416161728</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0328222294664492</v>
+        <v>0.03282222946645013</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002839900000012108</v>
+        <v>0.001960499999995591</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1019,28 +1019,28 @@
         <v>31.91172483743855</v>
       </c>
       <c r="O7" t="n">
-        <v>21.21143497486558</v>
+        <v>21.21143497486557</v>
       </c>
       <c r="P7" t="n">
-        <v>32.23063127269291</v>
+        <v>32.23063127269292</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01097172868905367</v>
+        <v>0.01097172868905377</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1587719982283707</v>
+        <v>0.1587719982283715</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1129649190199173</v>
+        <v>0.1129649190199182</v>
       </c>
       <c r="T7" t="n">
-        <v>0.158983817713385</v>
+        <v>0.1589838177133873</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03837262134134815</v>
+        <v>0.03837262134134825</v>
       </c>
       <c r="V7" t="n">
-        <v>0.05626076347184954</v>
+        <v>0.05626076347185094</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003261499999993589</v>
+        <v>0.001636099999984708</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
@@ -1080,7 +1080,7 @@
         <v>161.1446965019174</v>
       </c>
       <c r="H8" t="n">
-        <v>6.999232471841212</v>
+        <v>6.99923247184121</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>22.5587099219574</v>
       </c>
       <c r="P8" t="n">
-        <v>10.13571128597207</v>
+        <v>10.13571128597206</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008361906735425499</v>
+        <v>0.008361906735426073</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07085594993625062</v>
+        <v>0.07085594993624963</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03761336924204076</v>
+        <v>0.03761336924204422</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0560557204626147</v>
+        <v>0.0560557204626163</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03713740127327739</v>
+        <v>0.03713740127327735</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04012154382709003</v>
+        <v>0.04012154382708997</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.003445400000003929</v>
+        <v>0.0017804999999953</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1156,7 +1156,7 @@
         <v>0.02342413751320353</v>
       </c>
       <c r="F9" t="n">
-        <v>19.75298002523076</v>
+        <v>19.75298002523077</v>
       </c>
       <c r="G9" t="n">
         <v>13.6147369452699</v>
@@ -1189,22 +1189,22 @@
         <v>31.56293441722419</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.009920543475284404</v>
+        <v>0.009920543475284297</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1675652143619771</v>
+        <v>0.1675652143619765</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05326888767677705</v>
+        <v>0.05326888767677566</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2716284535783005</v>
+        <v>0.2716284535782962</v>
       </c>
       <c r="U9" t="n">
         <v>0.03795387682668631</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0966516321653231</v>
+        <v>0.09665163216532383</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002267799999998488</v>
+        <v>0.001715900000021975</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1238,13 +1238,13 @@
         <v>0.003700034298884668</v>
       </c>
       <c r="F10" t="n">
-        <v>20.0238953949464</v>
+        <v>20.02389539494644</v>
       </c>
       <c r="G10" t="n">
         <v>157.2154323349772</v>
       </c>
       <c r="H10" t="n">
-        <v>14.64173551218809</v>
+        <v>14.64173551218813</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1268,25 +1268,25 @@
         <v>81.38440017836342</v>
       </c>
       <c r="P10" t="n">
-        <v>8.067097346191259</v>
+        <v>8.067097346191282</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01035321154570153</v>
+        <v>0.01035321154569767</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2296395052250254</v>
+        <v>0.2296395052248586</v>
       </c>
       <c r="S10" t="n">
-        <v>0.118928970677323</v>
+        <v>0.1189289706772414</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1742923499376001</v>
+        <v>0.1742923499374725</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04384003652497943</v>
+        <v>0.04384003652497937</v>
       </c>
       <c r="V10" t="n">
-        <v>0.007719045371280694</v>
+        <v>0.007719045371293271</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.009363199999995686</v>
+        <v>0.004339799999996785</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1326,7 +1326,7 @@
         <v>1.921006044737966</v>
       </c>
       <c r="H11" t="n">
-        <v>8.885085254642272</v>
+        <v>8.88508525464227</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,25 +1350,25 @@
         <v>3.097970163792166</v>
       </c>
       <c r="P11" t="n">
-        <v>28.22187900248704</v>
+        <v>28.22187900248703</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.008184567040048496</v>
+        <v>0.008184567040048522</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2550062509151029</v>
+        <v>0.2550062509151054</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0278346737477528</v>
+        <v>0.02783467374775284</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4052115183439146</v>
+        <v>0.4052115183439169</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04188104350680996</v>
+        <v>0.04188104350680994</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04248959879450754</v>
+        <v>0.04248959879450846</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002887600000008206</v>
+        <v>0.001768400000003112</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1402,13 +1402,13 @@
         <v>359.9851098728211</v>
       </c>
       <c r="F12" t="n">
-        <v>20.00898751964626</v>
+        <v>20.00898751964625</v>
       </c>
       <c r="G12" t="n">
         <v>138.9074858867613</v>
       </c>
       <c r="H12" t="n">
-        <v>3.263230272248796</v>
+        <v>3.263230272248793</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1429,28 +1429,28 @@
         <v>14.92377511516745</v>
       </c>
       <c r="O12" t="n">
-        <v>14.51584746210592</v>
+        <v>14.51584746210591</v>
       </c>
       <c r="P12" t="n">
-        <v>14.91762211805859</v>
+        <v>14.91762211805858</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.008579571667839746</v>
+        <v>0.008579571667839892</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08557351255348372</v>
+        <v>0.08557351255348358</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03726863829340581</v>
+        <v>0.03726863829340608</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1068779265088913</v>
+        <v>0.106877926508894</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03558530570407586</v>
+        <v>0.03558530570407588</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0173005000447079</v>
+        <v>0.01730050004470665</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002830600000010008</v>
+        <v>0.001753500000006625</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,7 +1487,7 @@
         <v>19.77410122890885</v>
       </c>
       <c r="G13" t="n">
-        <v>31.89100842881006</v>
+        <v>31.89100842881005</v>
       </c>
       <c r="H13" t="n">
         <v>3.181739460063434</v>
@@ -1517,22 +1517,22 @@
         <v>20.64760015292329</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.008680056616133231</v>
+        <v>0.008680056616133166</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1210540029489218</v>
+        <v>0.1210540029489217</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0359726581077302</v>
+        <v>0.03597265810772973</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1863678659282647</v>
+        <v>0.1863678659282628</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03851496072560347</v>
+        <v>0.03851496072560349</v>
       </c>
       <c r="V13" t="n">
-        <v>0.08932492363374017</v>
+        <v>0.08932492363374051</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.005012199999995914</v>
+        <v>0.001598199999989447</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1569,10 +1569,10 @@
         <v>20.18247213396583</v>
       </c>
       <c r="G14" t="n">
-        <v>27.70750919818529</v>
+        <v>27.70750919818528</v>
       </c>
       <c r="H14" t="n">
-        <v>12.11417824137692</v>
+        <v>12.11417824137693</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1596,25 +1596,25 @@
         <v>14.61276044611318</v>
       </c>
       <c r="P14" t="n">
-        <v>31.45363296748678</v>
+        <v>31.45363296748679</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01064670978226618</v>
+        <v>0.01064670978226588</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1515263699357847</v>
+        <v>0.1515263699357833</v>
       </c>
       <c r="S14" t="n">
-        <v>0.08032655792227114</v>
+        <v>0.08032655792226782</v>
       </c>
       <c r="T14" t="n">
-        <v>0.195782007696353</v>
+        <v>0.1957820076963445</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04028045812485637</v>
+        <v>0.04028045812485634</v>
       </c>
       <c r="V14" t="n">
-        <v>0.08052082080268694</v>
+        <v>0.08052082080268977</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.003848700000006033</v>
+        <v>0.001844199999993634</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1678,25 +1678,25 @@
         <v>25.35500437705521</v>
       </c>
       <c r="P15" t="n">
-        <v>13.30995817351898</v>
+        <v>13.30995817351899</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.008999792744151802</v>
+        <v>0.008999792744151547</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08915767215656981</v>
+        <v>0.08915767215657068</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05108547532320788</v>
+        <v>0.0510854753232074</v>
       </c>
       <c r="T15" t="n">
-        <v>0.05639846048083386</v>
+        <v>0.05639846048083182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03509519151061594</v>
+        <v>0.0350951915106159</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01403253689719384</v>
+        <v>0.01403253689719429</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.003337999999999397</v>
+        <v>0.001991000000003851</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1730,13 +1730,13 @@
         <v>0.03721468193758858</v>
       </c>
       <c r="F16" t="n">
-        <v>19.937861068951</v>
+        <v>19.93786106895101</v>
       </c>
       <c r="G16" t="n">
         <v>92.421491448162</v>
       </c>
       <c r="H16" t="n">
-        <v>12.23238035202793</v>
+        <v>12.23238035202795</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1757,28 +1757,28 @@
         <v>23.0795266139911</v>
       </c>
       <c r="O16" t="n">
-        <v>43.50037003833078</v>
+        <v>43.50037003833079</v>
       </c>
       <c r="P16" t="n">
-        <v>23.0245368316457</v>
+        <v>23.02453683164573</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0102875153263503</v>
+        <v>0.01028751532635167</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1622951441503929</v>
+        <v>0.162295144150457</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1478980109999448</v>
+        <v>0.1478980110000044</v>
       </c>
       <c r="T16" t="n">
-        <v>0.03895550793880856</v>
+        <v>0.03895550793880809</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0415445215169685</v>
+        <v>0.04154452151696866</v>
       </c>
       <c r="V16" t="n">
-        <v>0.01793820557849513</v>
+        <v>0.01793820557849143</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.005337300000007872</v>
+        <v>0.002003199999990102</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>152.9064617641496</v>
       </c>
       <c r="H17" t="n">
-        <v>5.144348859457567</v>
+        <v>5.14434885945757</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1845,22 +1845,22 @@
         <v>12.51740385599123</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.008510714447627058</v>
+        <v>0.008510714447627214</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07666977681940558</v>
+        <v>0.07666977681940466</v>
       </c>
       <c r="S17" t="n">
-        <v>0.03829398668276456</v>
+        <v>0.03829398668276442</v>
       </c>
       <c r="T17" t="n">
-        <v>0.07726583843971173</v>
+        <v>0.07726583843971384</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04006528836265379</v>
+        <v>0.04006528836265372</v>
       </c>
       <c r="V17" t="n">
-        <v>0.008516828581840129</v>
+        <v>0.008516828581839306</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002194199999991042</v>
+        <v>0.001798600000000761</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>19.74731525093283</v>
       </c>
       <c r="G18" t="n">
-        <v>40.28129990307248</v>
+        <v>40.28129990307247</v>
       </c>
       <c r="H18" t="n">
-        <v>9.040749793007192</v>
+        <v>9.040749793007194</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1927,22 +1927,22 @@
         <v>26.69429535489654</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01014441282177918</v>
+        <v>0.01014441282177937</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1305012282096754</v>
+        <v>0.130501228209674</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07680231025426287</v>
+        <v>0.07680231025426362</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1421581418936463</v>
+        <v>0.1421581418936496</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03409915298173882</v>
+        <v>0.03409915298173881</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1033566174374786</v>
+        <v>0.1033566174374779</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002250599999996439</v>
+        <v>0.00222660000000019</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1982,7 +1982,7 @@
         <v>52.58792639231039</v>
       </c>
       <c r="H19" t="n">
-        <v>9.469333425606992</v>
+        <v>9.469333425606989</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>22.79069350396399</v>
       </c>
       <c r="P19" t="n">
-        <v>26.28981370986845</v>
+        <v>26.28981370986844</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01038026859315759</v>
+        <v>0.01038026859315797</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1362342040618101</v>
+        <v>0.1362342040618099</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09310838972287673</v>
+        <v>0.09310838972288078</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1150964734761233</v>
+        <v>0.1150964734761293</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04121931384898994</v>
+        <v>0.04121931384899004</v>
       </c>
       <c r="V19" t="n">
-        <v>0.04918237317849627</v>
+        <v>0.04918237317849464</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.005068800000003648</v>
+        <v>0.001692999999988842</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2058,13 +2058,13 @@
         <v>359.9335107729718</v>
       </c>
       <c r="F20" t="n">
-        <v>20.1834444121279</v>
+        <v>20.18344441212792</v>
       </c>
       <c r="G20" t="n">
         <v>116.5344385220221</v>
       </c>
       <c r="H20" t="n">
-        <v>9.218021242055373</v>
+        <v>9.218021242055384</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2088,25 +2088,25 @@
         <v>41.17622683743146</v>
       </c>
       <c r="P20" t="n">
-        <v>16.77380727869272</v>
+        <v>16.77380727869273</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.009918428730728927</v>
+        <v>0.009918428730729059</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1336205565358704</v>
+        <v>0.1336205565358756</v>
       </c>
       <c r="S20" t="n">
-        <v>0.09789207622637217</v>
+        <v>0.09789207622637547</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03739506149530761</v>
+        <v>0.03739506149530786</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04084321295008035</v>
+        <v>0.04084321295008039</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0941835122894614</v>
+        <v>0.09418351228946401</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.005571600000010335</v>
+        <v>0.003144700000007106</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2170,25 +2170,25 @@
         <v>10.08956169561382</v>
       </c>
       <c r="P21" t="n">
-        <v>31.80072302541097</v>
+        <v>31.80072302541098</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01021468251061881</v>
+        <v>0.01021468251061844</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1592959385969265</v>
+        <v>0.1592959385969273</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06130440668247403</v>
+        <v>0.0613044066824715</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2459631269367484</v>
+        <v>0.2459631269367357</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03859218219172539</v>
+        <v>0.03859218219172535</v>
       </c>
       <c r="V21" t="n">
-        <v>0.02604327842774715</v>
+        <v>0.02604327842774917</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.003683299999991618</v>
+        <v>0.002250000000003638</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2222,13 +2222,13 @@
         <v>0.0272214595597346</v>
       </c>
       <c r="F22" t="n">
-        <v>19.77873119090829</v>
+        <v>19.77873119090827</v>
       </c>
       <c r="G22" t="n">
         <v>105.9825665711436</v>
       </c>
       <c r="H22" t="n">
-        <v>13.55134493375615</v>
+        <v>13.55134493375613</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>52.96654086905831</v>
       </c>
       <c r="P22" t="n">
-        <v>21.06127926968828</v>
+        <v>21.06127926968826</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01013620086619603</v>
+        <v>0.01013620086619464</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1759966667447896</v>
+        <v>0.1759966667447088</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1658001040368064</v>
+        <v>0.1658001040367337</v>
       </c>
       <c r="T22" t="n">
-        <v>0.04339795640438612</v>
+        <v>0.04339795640437254</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03768839408968709</v>
+        <v>0.03768839408968694</v>
       </c>
       <c r="V22" t="n">
-        <v>0.07360903724616978</v>
+        <v>0.07360903724617374</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.004562899999996262</v>
+        <v>0.002287300000006098</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2307,10 +2307,10 @@
         <v>20.18565179460018</v>
       </c>
       <c r="G23" t="n">
-        <v>9.050003261178432</v>
+        <v>9.05000326117842</v>
       </c>
       <c r="H23" t="n">
-        <v>6.731840845339598</v>
+        <v>6.731840845339602</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2337,22 +2337,22 @@
         <v>25.6623590479262</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.00873221615711898</v>
+        <v>0.008732216157119022</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1804705903132779</v>
+        <v>0.1804705903132765</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0336584051328383</v>
+        <v>0.03365840513283877</v>
       </c>
       <c r="T23" t="n">
-        <v>0.292355965191076</v>
+        <v>0.2923559651910786</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04051833723601383</v>
+        <v>0.04051833723601382</v>
       </c>
       <c r="V23" t="n">
-        <v>0.158479666856797</v>
+        <v>0.1584796668567977</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.004162300000004393</v>
+        <v>0.001443399999999428</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2386,13 +2386,13 @@
         <v>0.004087912249024698</v>
       </c>
       <c r="F24" t="n">
-        <v>20.19188553325306</v>
+        <v>20.19188553325305</v>
       </c>
       <c r="G24" t="n">
-        <v>38.16591817815706</v>
+        <v>38.16591817815704</v>
       </c>
       <c r="H24" t="n">
-        <v>8.682750324292625</v>
+        <v>8.682750324292629</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2419,22 +2419,22 @@
         <v>26.8678041612105</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01028443380895718</v>
+        <v>0.01028443380895713</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1338806776926824</v>
+        <v>0.1338806776926863</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07345780075274215</v>
+        <v>0.07345780075274332</v>
       </c>
       <c r="T24" t="n">
         <v>0.1530958139878755</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04412248663667868</v>
+        <v>0.04412248663667863</v>
       </c>
       <c r="V24" t="n">
-        <v>0.05325548314918473</v>
+        <v>0.05325548314918301</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002223000000000752</v>
+        <v>0.003680599999995593</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2474,7 +2474,7 @@
         <v>93.09499585809522</v>
       </c>
       <c r="H25" t="n">
-        <v>14.32487845822385</v>
+        <v>14.32487845822386</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2501,22 +2501,22 @@
         <v>24.5896059188284</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01052835591569686</v>
+        <v>0.01052835591569627</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1811119785044338</v>
+        <v>0.1811119785044034</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1812005752150595</v>
+        <v>0.1812005752150294</v>
       </c>
       <c r="T25" t="n">
-        <v>0.03507099527408028</v>
+        <v>0.03507099527408021</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03664654112017555</v>
+        <v>0.03664654112017553</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01806471080165899</v>
+        <v>0.01806471080165813</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.00506490000000781</v>
+        <v>0.002392999999983658</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2550,7 +2550,7 @@
         <v>359.9702442729961</v>
       </c>
       <c r="F26" t="n">
-        <v>20.04216087219062</v>
+        <v>20.04216087219063</v>
       </c>
       <c r="G26" t="n">
         <v>172.5789551414937</v>
@@ -2580,25 +2580,25 @@
         <v>37.03981485283663</v>
       </c>
       <c r="P26" t="n">
-        <v>4.855704518132373</v>
+        <v>4.855704518132376</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.008501869012793555</v>
+        <v>0.008501869012794001</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08077391486783886</v>
+        <v>0.08077391486785229</v>
       </c>
       <c r="S26" t="n">
-        <v>0.03838614016070054</v>
+        <v>0.03838614016070559</v>
       </c>
       <c r="T26" t="n">
-        <v>0.03398506175358291</v>
+        <v>0.03398506175358713</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03896026599686241</v>
+        <v>0.03896026599686235</v>
       </c>
       <c r="V26" t="n">
-        <v>0.03636274542284176</v>
+        <v>0.03636274542284441</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.002993099999997639</v>
+        <v>0.002266600000012886</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2632,7 +2632,7 @@
         <v>0.006153976293107625</v>
       </c>
       <c r="F27" t="n">
-        <v>20.10523049012008</v>
+        <v>20.10523049012007</v>
       </c>
       <c r="G27" t="n">
         <v>156.5862740454571</v>
@@ -2662,25 +2662,25 @@
         <v>42.90628629796366</v>
       </c>
       <c r="P27" t="n">
-        <v>8.76342672038697</v>
+        <v>8.763426720386969</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.009068342865192409</v>
+        <v>0.009068342865190631</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1058260911765804</v>
+        <v>0.1058260911765422</v>
       </c>
       <c r="S27" t="n">
-        <v>0.05864450470562462</v>
+        <v>0.05864450470560291</v>
       </c>
       <c r="T27" t="n">
-        <v>0.04191073260309804</v>
+        <v>0.04191073260308895</v>
       </c>
       <c r="U27" t="n">
-        <v>0.042754280049225</v>
+        <v>0.04275428004922503</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03549973750350723</v>
+        <v>0.03549973750350645</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.004320400000011659</v>
+        <v>0.00268740000001344</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2714,10 +2714,10 @@
         <v>0.0136744218398784</v>
       </c>
       <c r="F28" t="n">
-        <v>20.03217917728941</v>
+        <v>20.0321791772894</v>
       </c>
       <c r="G28" t="n">
-        <v>55.75156586078131</v>
+        <v>55.75156586078128</v>
       </c>
       <c r="H28" t="n">
         <v>9.177524203185607</v>
@@ -2741,28 +2741,28 @@
         <v>25.81162416209323</v>
       </c>
       <c r="O28" t="n">
-        <v>23.52266447832175</v>
+        <v>23.52266447832174</v>
       </c>
       <c r="P28" t="n">
         <v>25.75384001018999</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01035380236772724</v>
+        <v>0.01035380236772741</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1359705450383194</v>
+        <v>0.1359705450383174</v>
       </c>
       <c r="S28" t="n">
-        <v>0.09358370594940169</v>
+        <v>0.09358370594940194</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1093382752669269</v>
+        <v>0.1093382752669291</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03840565711662028</v>
+        <v>0.03840565711662021</v>
       </c>
       <c r="V28" t="n">
-        <v>0.03186114220518571</v>
+        <v>0.03186114220517813</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004651300000006131</v>
+        <v>0.001755099999996901</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2799,7 +2799,7 @@
         <v>20.02561172571706</v>
       </c>
       <c r="G29" t="n">
-        <v>76.49739685922222</v>
+        <v>76.49739685922223</v>
       </c>
       <c r="H29" t="n">
         <v>12.85925983874509</v>
@@ -2829,22 +2829,22 @@
         <v>26.50790294519479</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01068993081488628</v>
+        <v>0.01068993081488593</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1646387272145081</v>
+        <v>0.1646387272144962</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1516115681949496</v>
+        <v>0.1516115681949372</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0642166327144658</v>
+        <v>0.06421663271446305</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04140778100835261</v>
+        <v>0.04140778100835243</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03159669507969598</v>
+        <v>0.03159669507969506</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.006949599999998668</v>
+        <v>0.002016499999996313</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9941906500329</v>
       </c>
       <c r="F30" t="n">
-        <v>20.01188609647892</v>
+        <v>20.01188609647891</v>
       </c>
       <c r="G30" t="n">
-        <v>131.1234738143265</v>
+        <v>131.1234738143266</v>
       </c>
       <c r="H30" t="n">
-        <v>9.746078324006852</v>
+        <v>9.746078324006843</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2905,28 +2905,28 @@
         <v>13.89068101942091</v>
       </c>
       <c r="O30" t="n">
-        <v>45.79962435683522</v>
+        <v>45.79962435683524</v>
       </c>
       <c r="P30" t="n">
-        <v>13.91872776780686</v>
+        <v>13.91872776780685</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.009568054051320374</v>
+        <v>0.009568054051318962</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1297444830849406</v>
+        <v>0.1297444830848838</v>
       </c>
       <c r="S30" t="n">
-        <v>0.08978424043770268</v>
+        <v>0.08978424043766627</v>
       </c>
       <c r="T30" t="n">
-        <v>0.04187815130366891</v>
+        <v>0.04187815130365687</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03833404597105208</v>
+        <v>0.0383340459710521</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0106095402010825</v>
+        <v>0.01060954020107687</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004658000000006268</v>
+        <v>0.002767800000015086</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -2966,7 +2966,7 @@
         <v>154.9095578787995</v>
       </c>
       <c r="H31" t="n">
-        <v>6.401408835157671</v>
+        <v>6.401408835157668</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2993,22 +2993,22 @@
         <v>11.39144113434451</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.008640475382272911</v>
+        <v>0.008640475382272953</v>
       </c>
       <c r="R31" t="n">
-        <v>0.07756348825519027</v>
+        <v>0.07756348825518972</v>
       </c>
       <c r="S31" t="n">
-        <v>0.04169978332336099</v>
+        <v>0.04169978332336084</v>
       </c>
       <c r="T31" t="n">
-        <v>0.05869329753569253</v>
+        <v>0.05869329753569322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0402355494697081</v>
+        <v>0.04023554946970816</v>
       </c>
       <c r="V31" t="n">
-        <v>0.04421383095487436</v>
+        <v>0.04421383095487708</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.002519800000001737</v>
+        <v>0.001864400000016531</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3042,13 +3042,13 @@
         <v>0.01701440405518422</v>
       </c>
       <c r="F32" t="n">
-        <v>19.87825089272233</v>
+        <v>19.87825089272232</v>
       </c>
       <c r="G32" t="n">
         <v>116.042664508281</v>
       </c>
       <c r="H32" t="n">
-        <v>7.497930339290997</v>
+        <v>7.497930339290996</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3075,22 +3075,22 @@
         <v>16.21582098024313</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.009528714339951927</v>
+        <v>0.00952871433995128</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1159710845212416</v>
+        <v>0.1159710845212238</v>
       </c>
       <c r="S32" t="n">
-        <v>0.07960691862886596</v>
+        <v>0.07960691862885363</v>
       </c>
       <c r="T32" t="n">
-        <v>0.04207681267286615</v>
+        <v>0.04207681267286539</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03976935360894833</v>
+        <v>0.03976935360894839</v>
       </c>
       <c r="V32" t="n">
-        <v>0.04521676351121041</v>
+        <v>0.04521676351121071</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004217900000000441</v>
+        <v>0.001801199999988512</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3157,16 +3157,16 @@
         <v>31.6825514564472</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01089569164881224</v>
+        <v>0.01089569164881171</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1641522696698773</v>
+        <v>0.1641522696698847</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1400433580664777</v>
+        <v>0.1400433580664766</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1281616521238529</v>
+        <v>0.1281616521238458</v>
       </c>
       <c r="U33" t="n">
         <v>0.04102438587416318</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002460500000012189</v>
+        <v>0.002696899999989455</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3212,7 +3212,7 @@
         <v>154.2544751851291</v>
       </c>
       <c r="H34" t="n">
-        <v>7.435864641018042</v>
+        <v>7.435864641018044</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3239,22 +3239,22 @@
         <v>10.59413960420809</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.008756368178237627</v>
+        <v>0.008756368178237951</v>
       </c>
       <c r="R34" t="n">
-        <v>0.08274301807291684</v>
+        <v>0.08274301807292517</v>
       </c>
       <c r="S34" t="n">
-        <v>0.04658385923688964</v>
+        <v>0.04658385923689472</v>
       </c>
       <c r="T34" t="n">
-        <v>0.04345069590210515</v>
+        <v>0.04345069590210403</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04041041584915313</v>
+        <v>0.0404104158491532</v>
       </c>
       <c r="V34" t="n">
-        <v>0.03043613766777603</v>
+        <v>0.03043613766777543</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002480399999996052</v>
+        <v>0.001795899999990525</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3291,10 +3291,10 @@
         <v>19.96567978940438</v>
       </c>
       <c r="G35" t="n">
-        <v>45.51210444958735</v>
+        <v>45.51210444958736</v>
       </c>
       <c r="H35" t="n">
-        <v>8.112077195492377</v>
+        <v>8.112077195492375</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3315,28 +3315,28 @@
         <v>25.8983258433767</v>
       </c>
       <c r="O35" t="n">
-        <v>18.60362307788706</v>
+        <v>18.60362307788708</v>
       </c>
       <c r="P35" t="n">
         <v>25.50343467848808</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01012978294907743</v>
+        <v>0.01012978294907718</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1282879713050938</v>
+        <v>0.1282879713050883</v>
       </c>
       <c r="S35" t="n">
-        <v>0.07579611304336745</v>
+        <v>0.0757961130433622</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1320443121074403</v>
+        <v>0.1320443121074344</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03840545952618535</v>
+        <v>0.03840545952618525</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1318907966247805</v>
+        <v>0.1318907966247751</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002180699999996705</v>
+        <v>0.001617500000008931</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3403,19 +3403,19 @@
         <v>32.14165352395676</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.009461443892812739</v>
+        <v>0.009461443892812713</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2133866617016179</v>
+        <v>0.2133866617016159</v>
       </c>
       <c r="S36" t="n">
-        <v>0.04152445398969857</v>
+        <v>0.04152445398969881</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3571258527442044</v>
+        <v>0.3571258527442028</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03821400433697236</v>
+        <v>0.03821400433697235</v>
       </c>
       <c r="V36" t="n">
         <v>0.05345735779152962</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001897299999995994</v>
+        <v>0.00139880000000403</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3455,10 +3455,10 @@
         <v>20.05029830110037</v>
       </c>
       <c r="G37" t="n">
-        <v>82.68074994687116</v>
+        <v>82.6807499468712</v>
       </c>
       <c r="H37" t="n">
-        <v>6.729354432118408</v>
+        <v>6.729354432118405</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3479,28 +3479,28 @@
         <v>20.58139294425217</v>
       </c>
       <c r="O37" t="n">
-        <v>26.42422655352879</v>
+        <v>26.4242265535288</v>
       </c>
       <c r="P37" t="n">
-        <v>20.61665378632156</v>
+        <v>20.61665378632155</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.009922212539285036</v>
+        <v>0.009922212539285246</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1204911833485982</v>
+        <v>0.1204911833485998</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08055007189113719</v>
+        <v>0.0805500718911402</v>
       </c>
       <c r="T37" t="n">
-        <v>0.07522170331337025</v>
+        <v>0.07522170331337169</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0417465879922607</v>
+        <v>0.04174658799226074</v>
       </c>
       <c r="V37" t="n">
-        <v>0.03351032314216804</v>
+        <v>0.03351032314216656</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002427599999990093</v>
+        <v>0.002092099999998709</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3534,13 +3534,13 @@
         <v>0.02059222550091844</v>
       </c>
       <c r="F38" t="n">
-        <v>19.87376447255122</v>
+        <v>19.8737644725512</v>
       </c>
       <c r="G38" t="n">
         <v>131.3199484065576</v>
       </c>
       <c r="H38" t="n">
-        <v>10.13132327147477</v>
+        <v>10.13132327147476</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3561,28 +3561,28 @@
         <v>13.96841538265422</v>
       </c>
       <c r="O38" t="n">
-        <v>48.15847160107459</v>
+        <v>48.1584716010746</v>
       </c>
       <c r="P38" t="n">
-        <v>13.83686363567994</v>
+        <v>13.83686363567993</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.009502000893426977</v>
+        <v>0.009502000893426494</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1329405831271595</v>
+        <v>0.1329405831271358</v>
       </c>
       <c r="S38" t="n">
-        <v>0.09348048882362452</v>
+        <v>0.09348048882360988</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04501144505978031</v>
+        <v>0.04501144505977338</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04422463190266061</v>
+        <v>0.04422463190266075</v>
       </c>
       <c r="V38" t="n">
-        <v>0.04320403291346339</v>
+        <v>0.04320403291346683</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003901800000008393</v>
+        <v>0.002819500000015296</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3646,25 +3646,25 @@
         <v>22.20174651838295</v>
       </c>
       <c r="P39" t="n">
-        <v>7.977929644020128</v>
+        <v>7.977929644020134</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.008051594376662049</v>
+        <v>0.008051594376662165</v>
       </c>
       <c r="R39" t="n">
-        <v>0.06183990103067674</v>
+        <v>0.06183990103067685</v>
       </c>
       <c r="S39" t="n">
-        <v>0.03201045073529925</v>
+        <v>0.03201045073529908</v>
       </c>
       <c r="T39" t="n">
-        <v>0.05150685328127642</v>
+        <v>0.05150685328127797</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03862043936170074</v>
+        <v>0.03862043936170069</v>
       </c>
       <c r="V39" t="n">
-        <v>0.06086391356136436</v>
+        <v>0.06086391356136549</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002441199999992705</v>
+        <v>0.001933699999995042</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3725,28 +3725,28 @@
         <v>28.11848681131468</v>
       </c>
       <c r="O40" t="n">
-        <v>34.98268582375358</v>
+        <v>34.98268582375359</v>
       </c>
       <c r="P40" t="n">
-        <v>28.27952456339856</v>
+        <v>28.27952456339855</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01085114564362714</v>
+        <v>0.01085114564362677</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1671617665489056</v>
+        <v>0.1671617665489029</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1534528229705515</v>
+        <v>0.1534528229705463</v>
       </c>
       <c r="T40" t="n">
-        <v>0.08092097934700937</v>
+        <v>0.08092097934700621</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04250734082948165</v>
+        <v>0.04250734082948159</v>
       </c>
       <c r="V40" t="n">
-        <v>0.03286247762485439</v>
+        <v>0.0328624776248531</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002687000000008766</v>
+        <v>0.002123600000004444</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3810,25 +3810,25 @@
         <v>46.6867466621424</v>
       </c>
       <c r="P41" t="n">
-        <v>21.97925594297747</v>
+        <v>21.97925594297748</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01024625557237061</v>
+        <v>0.01024625557237101</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1646502392439854</v>
+        <v>0.1646502392440152</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1508671983382136</v>
+        <v>0.1508671983382394</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03531730287658569</v>
+        <v>0.03531730287658615</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04179176320671243</v>
+        <v>0.04179176320671248</v>
       </c>
       <c r="V41" t="n">
-        <v>0.03284217550182016</v>
+        <v>0.03284217550181795</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004184199999997418</v>
+        <v>0.002155600000008917</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3865,7 +3865,7 @@
         <v>20.05068553269708</v>
       </c>
       <c r="G42" t="n">
-        <v>71.72748243844698</v>
+        <v>71.72748243844697</v>
       </c>
       <c r="H42" t="n">
         <v>3.748040491515026</v>
@@ -3889,28 +3889,28 @@
         <v>19.40305890800094</v>
       </c>
       <c r="O42" t="n">
-        <v>16.09776391577994</v>
+        <v>16.09776391577992</v>
       </c>
       <c r="P42" t="n">
         <v>19.61354993528219</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.009372695238720394</v>
+        <v>0.009372695238720334</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1041730145742478</v>
+        <v>0.1041730145742445</v>
       </c>
       <c r="S42" t="n">
-        <v>0.05160719796970457</v>
+        <v>0.05160719796970315</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1179188124300247</v>
+        <v>0.1179188124300233</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03875312786992275</v>
+        <v>0.03875312786992274</v>
       </c>
       <c r="V42" t="n">
-        <v>0.1196843268308586</v>
+        <v>0.1196843268308657</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002278399999994463</v>
+        <v>0.001571000000012646</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3944,13 +3944,13 @@
         <v>0.04958435559874152</v>
       </c>
       <c r="F43" t="n">
-        <v>19.98462472810193</v>
+        <v>19.98462472810194</v>
       </c>
       <c r="G43" t="n">
-        <v>47.6455207407908</v>
+        <v>47.64552074079086</v>
       </c>
       <c r="H43" t="n">
-        <v>3.299744640778858</v>
+        <v>3.299744640778855</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>20.45395189119985</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.009095098867872414</v>
+        <v>0.009095098867872605</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1108307410036641</v>
+        <v>0.1108307410036656</v>
       </c>
       <c r="S43" t="n">
-        <v>0.04262442112714418</v>
+        <v>0.04262442112714433</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1567553717298194</v>
+        <v>0.1567553717298232</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04007932487414007</v>
+        <v>0.04007932487414009</v>
       </c>
       <c r="V43" t="n">
-        <v>0.2744136300763251</v>
+        <v>0.2744136300763285</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.003410200000004693</v>
+        <v>0.001745400000004338</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4059,19 +4059,19 @@
         <v>29.3327460825888</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01080542165551384</v>
+        <v>0.01080542165551402</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1715898739435657</v>
+        <v>0.1715898739435583</v>
       </c>
       <c r="S44" t="n">
-        <v>0.1631766601155782</v>
+        <v>0.1631766601155742</v>
       </c>
       <c r="T44" t="n">
-        <v>0.08522853897820787</v>
+        <v>0.0852285389782091</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03749920282125527</v>
+        <v>0.03749920282125529</v>
       </c>
       <c r="V44" t="n">
         <v>0.04514078938943607</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003052800000006073</v>
+        <v>0.0020054000000016</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4111,10 +4111,10 @@
         <v>19.87511639853678</v>
       </c>
       <c r="G45" t="n">
-        <v>20.43055105388789</v>
+        <v>20.43055105388787</v>
       </c>
       <c r="H45" t="n">
-        <v>10.44520717682542</v>
+        <v>10.44520717682543</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,22 +4141,22 @@
         <v>29.52897397109712</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01002613609785485</v>
+        <v>0.01002613609785467</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1472543520907253</v>
+        <v>0.1472543520907248</v>
       </c>
       <c r="S45" t="n">
-        <v>0.05917508057814645</v>
+        <v>0.05917508057814545</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2197815202088929</v>
+        <v>0.2197815202088876</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03911400301458318</v>
+        <v>0.03911400301458313</v>
       </c>
       <c r="V45" t="n">
-        <v>0.04953278769901211</v>
+        <v>0.04953278769901324</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002211299999999028</v>
+        <v>0.001569299999999885</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4190,13 +4190,13 @@
         <v>0.007380640001895443</v>
       </c>
       <c r="F46" t="n">
-        <v>20.18620119129882</v>
+        <v>20.18620119129881</v>
       </c>
       <c r="G46" t="n">
         <v>150.141755764665</v>
       </c>
       <c r="H46" t="n">
-        <v>4.314037926303882</v>
+        <v>4.314037926303881</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4223,22 +4223,22 @@
         <v>13.60720903769396</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.008573826472286911</v>
+        <v>0.008573826472286604</v>
       </c>
       <c r="R46" t="n">
-        <v>0.08100245320694251</v>
+        <v>0.08100245320694151</v>
       </c>
       <c r="S46" t="n">
-        <v>0.03718587258501289</v>
+        <v>0.03718587258501177</v>
       </c>
       <c r="T46" t="n">
-        <v>0.09377590304259173</v>
+        <v>0.09377590304258702</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03990553515031343</v>
+        <v>0.03990553515031349</v>
       </c>
       <c r="V46" t="n">
-        <v>0.06223321351451655</v>
+        <v>0.06223321351451551</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002244500000003313</v>
+        <v>0.001716599999980417</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4278,7 +4278,7 @@
         <v>178.1703681777863</v>
       </c>
       <c r="H47" t="n">
-        <v>9.64742630242506</v>
+        <v>9.647426302425059</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4299,28 +4299,28 @@
         <v>6.082586648846124</v>
       </c>
       <c r="O47" t="n">
-        <v>14.92358079687516</v>
+        <v>14.92358079687515</v>
       </c>
       <c r="P47" t="n">
-        <v>5.998651223832722</v>
+        <v>5.998651223832725</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.006898262852842806</v>
+        <v>0.006898262852843134</v>
       </c>
       <c r="R47" t="n">
-        <v>0.05064249596664549</v>
+        <v>0.05064249596664578</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0197919669220325</v>
+        <v>0.01979196692203352</v>
       </c>
       <c r="T47" t="n">
-        <v>0.06760375613141982</v>
+        <v>0.06760375613142262</v>
       </c>
       <c r="U47" t="n">
-        <v>0.03774664816915922</v>
+        <v>0.03774664816915931</v>
       </c>
       <c r="V47" t="n">
-        <v>0.04385871457688528</v>
+        <v>0.04385871457689095</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002259199999997463</v>
+        <v>0.001568099999985861</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4354,7 +4354,7 @@
         <v>0.01092475128383546</v>
       </c>
       <c r="F48" t="n">
-        <v>19.98754854136264</v>
+        <v>19.98754854136263</v>
       </c>
       <c r="G48" t="n">
         <v>141.2182795267148</v>
@@ -4381,28 +4381,28 @@
         <v>11.82955794607099</v>
       </c>
       <c r="O48" t="n">
-        <v>50.86125823118007</v>
+        <v>50.86125823118005</v>
       </c>
       <c r="P48" t="n">
         <v>11.79614466508249</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.009444090962242052</v>
+        <v>0.009444090962240376</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1324042401919852</v>
+        <v>0.1324042401919358</v>
       </c>
       <c r="S48" t="n">
-        <v>0.08610405633867063</v>
+        <v>0.0861040563386393</v>
       </c>
       <c r="T48" t="n">
-        <v>0.05340038233278115</v>
+        <v>0.05340038233276424</v>
       </c>
       <c r="U48" t="n">
-        <v>0.04121939382393935</v>
+        <v>0.04121939382393932</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01309641008026047</v>
+        <v>0.01309641008026088</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.004429299999998193</v>
+        <v>0.003274199999992788</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4436,13 +4436,13 @@
         <v>0.007846726827346648</v>
       </c>
       <c r="F49" t="n">
-        <v>20.07594605230456</v>
+        <v>20.07594605230457</v>
       </c>
       <c r="G49" t="n">
         <v>20.50737641430257</v>
       </c>
       <c r="H49" t="n">
-        <v>14.61860827715261</v>
+        <v>14.6186082771526</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4469,22 +4469,22 @@
         <v>34.67146402958408</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01075698201167839</v>
+        <v>0.01075698201167867</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1656104935473128</v>
+        <v>0.1656104935473142</v>
       </c>
       <c r="S49" t="n">
-        <v>0.07820838327441325</v>
+        <v>0.07820838327441686</v>
       </c>
       <c r="T49" t="n">
-        <v>0.2416133015701562</v>
+        <v>0.2416133015701663</v>
       </c>
       <c r="U49" t="n">
         <v>0.03983239816270293</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0165537327519432</v>
+        <v>0.01655373275194381</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002278399999994463</v>
+        <v>0.001708400000012489</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4518,13 +4518,13 @@
         <v>359.9974410530575</v>
       </c>
       <c r="F50" t="n">
-        <v>19.77891379278893</v>
+        <v>19.77891379278892</v>
       </c>
       <c r="G50" t="n">
         <v>3.054287588458116</v>
       </c>
       <c r="H50" t="n">
-        <v>13.82867137063681</v>
+        <v>13.82867137063683</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4548,25 +4548,25 @@
         <v>3.483981592031912</v>
       </c>
       <c r="P50" t="n">
-        <v>33.79584512847857</v>
+        <v>33.79584512847858</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.008865082253778781</v>
+        <v>0.008865082253778821</v>
       </c>
       <c r="R50" t="n">
         <v>0.2727074745113278</v>
       </c>
       <c r="S50" t="n">
-        <v>0.03474377312949115</v>
+        <v>0.03474377312949136</v>
       </c>
       <c r="T50" t="n">
-        <v>0.4512023464646887</v>
+        <v>0.451202346464692</v>
       </c>
       <c r="U50" t="n">
-        <v>0.04074970303062795</v>
+        <v>0.04074970303062792</v>
       </c>
       <c r="V50" t="n">
-        <v>0.03583069012912209</v>
+        <v>0.03583069012912466</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001929000000004066</v>
+        <v>0.001407600000021603</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4606,7 +4606,7 @@
         <v>53.70333719922516</v>
       </c>
       <c r="H51" t="n">
-        <v>5.963760330823846</v>
+        <v>5.963760330823845</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>22.58537641149628</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.009758918609880389</v>
+        <v>0.009758918609880414</v>
       </c>
       <c r="R51" t="n">
         <v>0.1155911190423482</v>
@@ -4645,10 +4645,10 @@
         <v>0.1207350443189774</v>
       </c>
       <c r="U51" t="n">
-        <v>0.03641000792194498</v>
+        <v>0.03641000792194497</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0260854660863058</v>
+        <v>0.02608546608630618</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002208199999998328</v>
+        <v>0.001581400000020494</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4685,7 +4685,7 @@
         <v>19.99264453067881</v>
       </c>
       <c r="G52" t="n">
-        <v>88.63916786142045</v>
+        <v>88.63916786142043</v>
       </c>
       <c r="H52" t="n">
         <v>5.759285994269677</v>
@@ -4709,28 +4709,28 @@
         <v>19.26468874930528</v>
       </c>
       <c r="O52" t="n">
-        <v>24.72763995879908</v>
+        <v>24.72763995879906</v>
       </c>
       <c r="P52" t="n">
         <v>19.31111725725652</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.009700610782550786</v>
+        <v>0.009700610782551137</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1121259629196568</v>
+        <v>0.1121259629196587</v>
       </c>
       <c r="S52" t="n">
-        <v>0.07089278539616294</v>
+        <v>0.0708927853961655</v>
       </c>
       <c r="T52" t="n">
-        <v>0.07638010539608048</v>
+        <v>0.07638010539608377</v>
       </c>
       <c r="U52" t="n">
-        <v>0.03921497379971004</v>
+        <v>0.03921497379971009</v>
       </c>
       <c r="V52" t="n">
-        <v>0.02727248178897928</v>
+        <v>0.02727248178898038</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002427600000004304</v>
+        <v>0.002444499999995742</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4797,22 +4797,22 @@
         <v>15.97468211604116</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.008925245066095841</v>
+        <v>0.008925245066095709</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08955615967809713</v>
+        <v>0.08955615967809885</v>
       </c>
       <c r="S53" t="n">
-        <v>0.04496181851380487</v>
+        <v>0.04496181851380447</v>
       </c>
       <c r="T53" t="n">
-        <v>0.09458738550182025</v>
+        <v>0.09458738550181832</v>
       </c>
       <c r="U53" t="n">
-        <v>0.03892873595046056</v>
+        <v>0.03892873595046054</v>
       </c>
       <c r="V53" t="n">
-        <v>0.1091635946947467</v>
+        <v>0.1091635946947462</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003710099999992167</v>
+        <v>0.001651199999997743</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4849,10 +4849,10 @@
         <v>20.12635141704456</v>
       </c>
       <c r="G54" t="n">
-        <v>145.9264840706658</v>
+        <v>145.9264840706657</v>
       </c>
       <c r="H54" t="n">
-        <v>3.249370403975039</v>
+        <v>3.249370403975038</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4879,22 +4879,22 @@
         <v>14.66611787084647</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.008449797719702929</v>
+        <v>0.008449797719702704</v>
       </c>
       <c r="R54" t="n">
-        <v>0.08633921650967315</v>
+        <v>0.08633921650967427</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03455161576700912</v>
+        <v>0.03455161576700879</v>
       </c>
       <c r="T54" t="n">
-        <v>0.1146489468535552</v>
+        <v>0.1146489468535518</v>
       </c>
       <c r="U54" t="n">
-        <v>0.03693730881894999</v>
+        <v>0.03693730881895001</v>
       </c>
       <c r="V54" t="n">
-        <v>0.1469483405031169</v>
+        <v>0.1469483405031197</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002152999999992744</v>
+        <v>0.001610199999987572</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4958,25 +4958,25 @@
         <v>43.1154591344195</v>
       </c>
       <c r="P55" t="n">
-        <v>9.661688047398302</v>
+        <v>9.661688047398304</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.009133322848877915</v>
+        <v>0.009133322848878049</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1081375802534919</v>
+        <v>0.1081375802534963</v>
       </c>
       <c r="S55" t="n">
-        <v>0.06260704656377376</v>
+        <v>0.06260704656377629</v>
       </c>
       <c r="T55" t="n">
-        <v>0.04125621034706741</v>
+        <v>0.04125621034706839</v>
       </c>
       <c r="U55" t="n">
-        <v>0.04487616545032438</v>
+        <v>0.04487616545032441</v>
       </c>
       <c r="V55" t="n">
-        <v>0.01120080163616194</v>
+        <v>0.01120080163616225</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.004942499999998518</v>
+        <v>0.003566100000000461</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5016,7 +5016,7 @@
         <v>76.17426777445561</v>
       </c>
       <c r="H56" t="n">
-        <v>7.202874287065747</v>
+        <v>7.202874287065748</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5037,28 +5037,28 @@
         <v>21.857439245682</v>
       </c>
       <c r="O56" t="n">
-        <v>26.40551989018502</v>
+        <v>26.40551989018503</v>
       </c>
       <c r="P56" t="n">
-        <v>21.53575639183959</v>
+        <v>21.5357563918396</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.009894047157927962</v>
+        <v>0.009894047157927814</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1221864545027377</v>
+        <v>0.1221864545027316</v>
       </c>
       <c r="S56" t="n">
-        <v>0.08378563334100869</v>
+        <v>0.08378563334100415</v>
       </c>
       <c r="T56" t="n">
-        <v>0.07890756998218453</v>
+        <v>0.07890756998218312</v>
       </c>
       <c r="U56" t="n">
-        <v>0.03934743216658621</v>
+        <v>0.03934743216658612</v>
       </c>
       <c r="V56" t="n">
-        <v>0.09432295152112041</v>
+        <v>0.09432295152111247</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002413599999997018</v>
+        <v>0.001860899999996946</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5098,7 +5098,7 @@
         <v>16.79522023666683</v>
       </c>
       <c r="H57" t="n">
-        <v>14.81875264168223</v>
+        <v>14.81875264168222</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5122,25 +5122,25 @@
         <v>10.36474833291319</v>
       </c>
       <c r="P57" t="n">
-        <v>35.02801484834024</v>
+        <v>35.02801484834022</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01061276070886109</v>
+        <v>0.01061276070886103</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1718635911896448</v>
+        <v>0.1718635911896456</v>
       </c>
       <c r="S57" t="n">
-        <v>0.07013456416034022</v>
+        <v>0.07013456416033979</v>
       </c>
       <c r="T57" t="n">
-        <v>0.2667455008472735</v>
+        <v>0.2667455008472708</v>
       </c>
       <c r="U57" t="n">
-        <v>0.03908489020875561</v>
+        <v>0.03908489020875565</v>
       </c>
       <c r="V57" t="n">
-        <v>0.0461905012187818</v>
+        <v>0.04619050121877986</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002150799999995456</v>
+        <v>0.001648499999987507</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5180,7 +5180,7 @@
         <v>176.9446664493815</v>
       </c>
       <c r="H58" t="n">
-        <v>6.958916047306921</v>
+        <v>6.958916047306923</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,25 +5204,25 @@
         <v>10.06023136153273</v>
       </c>
       <c r="P58" t="n">
-        <v>9.212617624818936</v>
+        <v>9.212617624818934</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.007017546484524326</v>
+        <v>0.007017546484524184</v>
       </c>
       <c r="R58" t="n">
-        <v>0.07355190287874937</v>
+        <v>0.07355190287874619</v>
       </c>
       <c r="S58" t="n">
-        <v>0.02004535095220571</v>
+        <v>0.02004535095220547</v>
       </c>
       <c r="T58" t="n">
-        <v>0.1057708060778896</v>
+        <v>0.1057708060778842</v>
       </c>
       <c r="U58" t="n">
-        <v>0.0383565848930554</v>
+        <v>0.03835658489305542</v>
       </c>
       <c r="V58" t="n">
-        <v>0.04722892503765532</v>
+        <v>0.04722892503765435</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002244899999993777</v>
+        <v>0.001634600000016917</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5259,10 +5259,10 @@
         <v>19.78061276854539</v>
       </c>
       <c r="G59" t="n">
-        <v>14.98132024098453</v>
+        <v>14.98132024098455</v>
       </c>
       <c r="H59" t="n">
-        <v>6.164943805132383</v>
+        <v>6.164943805132381</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5289,22 +5289,22 @@
         <v>24.50466198873928</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.008876476721660271</v>
+        <v>0.008876476721660224</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1491672616952613</v>
+        <v>0.149167261695261</v>
       </c>
       <c r="S59" t="n">
-        <v>0.03737698195162224</v>
+        <v>0.03737698195162244</v>
       </c>
       <c r="T59" t="n">
-        <v>0.2393394749906793</v>
+        <v>0.2393394749906774</v>
       </c>
       <c r="U59" t="n">
-        <v>0.04363228978066181</v>
+        <v>0.04363228978066178</v>
       </c>
       <c r="V59" t="n">
-        <v>0.2114993051884664</v>
+        <v>0.2114993051884657</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001949400000000878</v>
+        <v>0.001521700000012061</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5341,10 +5341,10 @@
         <v>19.7356226088617</v>
       </c>
       <c r="G60" t="n">
-        <v>65.06532502173906</v>
+        <v>65.06532502173907</v>
       </c>
       <c r="H60" t="n">
-        <v>8.354975091077764</v>
+        <v>8.354975091077765</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5371,22 +5371,22 @@
         <v>23.68338246171203</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01008467535794192</v>
+        <v>0.01008467535794151</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1284488626785019</v>
+        <v>0.128448862678487</v>
       </c>
       <c r="S60" t="n">
-        <v>0.09077499773435968</v>
+        <v>0.09077499773434763</v>
       </c>
       <c r="T60" t="n">
-        <v>0.09055570128111988</v>
+        <v>0.09055570128111438</v>
       </c>
       <c r="U60" t="n">
-        <v>0.03767025435943329</v>
+        <v>0.03767025435943346</v>
       </c>
       <c r="V60" t="n">
-        <v>0.06257904242751386</v>
+        <v>0.06257904242751237</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002260399999997276</v>
+        <v>0.001680700000008528</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5423,10 +5423,10 @@
         <v>19.93955331985165</v>
       </c>
       <c r="G61" t="n">
-        <v>166.8482214943474</v>
+        <v>166.8482214943473</v>
       </c>
       <c r="H61" t="n">
-        <v>4.933047532914635</v>
+        <v>4.933047532914633</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5453,22 +5453,22 @@
         <v>11.83103615493604</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.007817625655742164</v>
+        <v>0.007817625655742086</v>
       </c>
       <c r="R61" t="n">
-        <v>0.07633269984412491</v>
+        <v>0.07633269984412588</v>
       </c>
       <c r="S61" t="n">
-        <v>0.02751841468543449</v>
+        <v>0.02751841468543451</v>
       </c>
       <c r="T61" t="n">
-        <v>0.1062752019739024</v>
+        <v>0.106275201973901</v>
       </c>
       <c r="U61" t="n">
-        <v>0.04017824188613739</v>
+        <v>0.04017824188613736</v>
       </c>
       <c r="V61" t="n">
-        <v>0.06125873550211714</v>
+        <v>0.06125873550211457</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.003220699999999965</v>
+        <v>0.001627299999995557</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5505,10 +5505,10 @@
         <v>20.17745141342638</v>
       </c>
       <c r="G62" t="n">
-        <v>54.07495768667611</v>
+        <v>54.07495768667613</v>
       </c>
       <c r="H62" t="n">
-        <v>5.361322740465389</v>
+        <v>5.361322740465387</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5535,22 +5535,22 @@
         <v>22.26703110755042</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.009782293479902709</v>
+        <v>0.009782293479902825</v>
       </c>
       <c r="R62" t="n">
-        <v>0.1157266671629554</v>
+        <v>0.1157266671629569</v>
       </c>
       <c r="S62" t="n">
-        <v>0.06037102088712332</v>
+        <v>0.06037102088712483</v>
       </c>
       <c r="T62" t="n">
-        <v>0.1273382217297477</v>
+        <v>0.1273382217297495</v>
       </c>
       <c r="U62" t="n">
-        <v>0.0428352590976821</v>
+        <v>0.04283525909768209</v>
       </c>
       <c r="V62" t="n">
-        <v>0.09312267721508116</v>
+        <v>0.09312267721508005</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002313299999997298</v>
+        <v>0.002013099999999213</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5587,10 +5587,10 @@
         <v>20.08741432840732</v>
       </c>
       <c r="G63" t="n">
-        <v>148.2218496438811</v>
+        <v>148.221849643881</v>
       </c>
       <c r="H63" t="n">
-        <v>5.201217642223073</v>
+        <v>5.201217642223071</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5617,22 +5617,22 @@
         <v>12.95742759238301</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.008721070442595229</v>
+        <v>0.008721070442595444</v>
       </c>
       <c r="R63" t="n">
-        <v>0.08065947808631641</v>
+        <v>0.08065947808631826</v>
       </c>
       <c r="S63" t="n">
-        <v>0.04200213653974695</v>
+        <v>0.04200213653974851</v>
       </c>
       <c r="T63" t="n">
-        <v>0.07262214426360467</v>
+        <v>0.07262214426360597</v>
       </c>
       <c r="U63" t="n">
-        <v>0.04125025682806715</v>
+        <v>0.04125025682806717</v>
       </c>
       <c r="V63" t="n">
-        <v>0.03743707045028873</v>
+        <v>0.03743707045028929</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002215700000007814</v>
+        <v>0.001704199999977618</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5669,7 +5669,7 @@
         <v>20.26632941996559</v>
       </c>
       <c r="G64" t="n">
-        <v>6.235128364319172</v>
+        <v>6.235128364319158</v>
       </c>
       <c r="H64" t="n">
         <v>8.619293932002732</v>
@@ -5699,19 +5699,19 @@
         <v>28.02642068493688</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.008887692411772069</v>
+        <v>0.008887692411772013</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2082087262340387</v>
+        <v>0.2082087262340361</v>
       </c>
       <c r="S64" t="n">
-        <v>0.03404870191000273</v>
+        <v>0.03404870191000262</v>
       </c>
       <c r="T64" t="n">
-        <v>0.339767727652832</v>
+        <v>0.3397677276528278</v>
       </c>
       <c r="U64" t="n">
-        <v>0.03575860180459143</v>
+        <v>0.03575860180459139</v>
       </c>
       <c r="V64" t="n">
         <v>0.07921860242234155</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.003711800000004928</v>
+        <v>0.00142339999999308</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5754,7 +5754,7 @@
         <v>99.85423884506321</v>
       </c>
       <c r="H65" t="n">
-        <v>7.783023362378509</v>
+        <v>7.783023362378512</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5775,28 +5775,28 @@
         <v>18.89625465573057</v>
       </c>
       <c r="O65" t="n">
-        <v>33.18585374768954</v>
+        <v>33.18585374768953</v>
       </c>
       <c r="P65" t="n">
         <v>18.94438032964052</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.009891321538346652</v>
+        <v>0.009891321538346761</v>
       </c>
       <c r="R65" t="n">
-        <v>0.1257685574289041</v>
+        <v>0.1257685574289028</v>
       </c>
       <c r="S65" t="n">
-        <v>0.09016297707042915</v>
+        <v>0.09016297707042903</v>
       </c>
       <c r="T65" t="n">
-        <v>0.05061708887728765</v>
+        <v>0.05061708887728809</v>
       </c>
       <c r="U65" t="n">
-        <v>0.03838289187545101</v>
+        <v>0.03838289187545105</v>
       </c>
       <c r="V65" t="n">
-        <v>0.01702953476913871</v>
+        <v>0.01702953476914728</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002496100000001888</v>
+        <v>0.002374199999991333</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5836,7 +5836,7 @@
         <v>68.52513415946906</v>
       </c>
       <c r="H66" t="n">
-        <v>9.735685422271413</v>
+        <v>9.735685422271409</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5860,25 +5860,25 @@
         <v>29.09223004394418</v>
       </c>
       <c r="P66" t="n">
-        <v>24.80635759901314</v>
+        <v>24.80635759901313</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01033261224200491</v>
+        <v>0.01033261224200471</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1412182737549822</v>
+        <v>0.1412182737549854</v>
       </c>
       <c r="S66" t="n">
-        <v>0.1082858454591309</v>
+        <v>0.1082858454591306</v>
       </c>
       <c r="T66" t="n">
-        <v>0.08368075269528649</v>
+        <v>0.08368075269528416</v>
       </c>
       <c r="U66" t="n">
-        <v>0.04318822180492346</v>
+        <v>0.0431882218049235</v>
       </c>
       <c r="V66" t="n">
-        <v>0.0310296610413154</v>
+        <v>0.03102966104131678</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.003582700000009709</v>
+        <v>0.00185170000000312</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5918,7 +5918,7 @@
         <v>39.07544620241294</v>
       </c>
       <c r="H67" t="n">
-        <v>3.370240775088424</v>
+        <v>3.370240775088425</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5942,25 +5942,25 @@
         <v>10.31330575534892</v>
       </c>
       <c r="P67" t="n">
-        <v>20.83217365849353</v>
+        <v>20.83217365849354</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.00898629529052254</v>
+        <v>0.008986295290522266</v>
       </c>
       <c r="R67" t="n">
-        <v>0.1161102899155309</v>
+        <v>0.1161102899155305</v>
       </c>
       <c r="S67" t="n">
-        <v>0.04012621989207703</v>
+        <v>0.0401262198920764</v>
       </c>
       <c r="T67" t="n">
-        <v>0.1719269714139788</v>
+        <v>0.1719269714139709</v>
       </c>
       <c r="U67" t="n">
         <v>0.03968705808644341</v>
       </c>
       <c r="V67" t="n">
-        <v>0.01820617866651396</v>
+        <v>0.01820617866651273</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002298600000003148</v>
+        <v>0.001653200000021116</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5997,10 +5997,10 @@
         <v>19.90171485700377</v>
       </c>
       <c r="G68" t="n">
-        <v>27.96889347981523</v>
+        <v>27.96889347981519</v>
       </c>
       <c r="H68" t="n">
-        <v>4.50941772059226</v>
+        <v>4.509417720592263</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6021,28 +6021,28 @@
         <v>22.58510882584286</v>
       </c>
       <c r="O68" t="n">
-        <v>9.524674031523675</v>
+        <v>9.524674031523663</v>
       </c>
       <c r="P68" t="n">
         <v>22.37305055534571</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.009034749834015946</v>
+        <v>0.009034749834015931</v>
       </c>
       <c r="R68" t="n">
-        <v>0.1248411272867689</v>
+        <v>0.1248411272867681</v>
       </c>
       <c r="S68" t="n">
-        <v>0.04074784557541766</v>
+        <v>0.04074784557541758</v>
       </c>
       <c r="T68" t="n">
-        <v>0.1898161065503133</v>
+        <v>0.1898161065503123</v>
       </c>
       <c r="U68" t="n">
-        <v>0.03925064646012109</v>
+        <v>0.03925064646012111</v>
       </c>
       <c r="V68" t="n">
-        <v>0.07712883802778699</v>
+        <v>0.07712883802778364</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002413399999994681</v>
+        <v>0.001624099999986583</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,10 +6076,10 @@
         <v>0.05204407590012107</v>
       </c>
       <c r="F69" t="n">
-        <v>19.78268665626599</v>
+        <v>19.782686656266</v>
       </c>
       <c r="G69" t="n">
-        <v>98.3191749773798</v>
+        <v>98.31917497737986</v>
       </c>
       <c r="H69" t="n">
         <v>13.08419858822071</v>
@@ -6109,22 +6109,22 @@
         <v>22.39528443561242</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.01017532400985597</v>
+        <v>0.01017532400985793</v>
       </c>
       <c r="R69" t="n">
-        <v>0.1694806117574724</v>
+        <v>0.1694806117575736</v>
       </c>
       <c r="S69" t="n">
-        <v>0.1602376716383919</v>
+        <v>0.1602376716384859</v>
       </c>
       <c r="T69" t="n">
-        <v>0.03503572504855709</v>
+        <v>0.03503572504856011</v>
       </c>
       <c r="U69" t="n">
-        <v>0.03899253543425373</v>
+        <v>0.0389925354342538</v>
       </c>
       <c r="V69" t="n">
-        <v>0.07802065099153248</v>
+        <v>0.07802065099153391</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.003060500000003685</v>
+        <v>0.002286499999996749</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6161,10 +6161,10 @@
         <v>19.9500030585411</v>
       </c>
       <c r="G70" t="n">
-        <v>47.03628846231157</v>
+        <v>47.03628846231155</v>
       </c>
       <c r="H70" t="n">
-        <v>3.47829947899447</v>
+        <v>3.478299478994471</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6191,22 +6191,22 @@
         <v>20.61469799044806</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.009102151214557777</v>
+        <v>0.00910215121455797</v>
       </c>
       <c r="R70" t="n">
-        <v>0.1105977380061894</v>
+        <v>0.1105977380061878</v>
       </c>
       <c r="S70" t="n">
-        <v>0.04341442459698113</v>
+        <v>0.04341442459698193</v>
       </c>
       <c r="T70" t="n">
-        <v>0.1549190824025301</v>
+        <v>0.1549190824025344</v>
       </c>
       <c r="U70" t="n">
-        <v>0.04024459439373434</v>
+        <v>0.04024459439373429</v>
       </c>
       <c r="V70" t="n">
-        <v>0.04953710849029393</v>
+        <v>0.04953710849029298</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002460600000006252</v>
+        <v>0.001627600000006169</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6246,7 +6246,7 @@
         <v>53.18962471353872</v>
       </c>
       <c r="H71" t="n">
-        <v>12.42506483541502</v>
+        <v>12.42506483541501</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6267,28 +6267,28 @@
         <v>29.68943618653344</v>
       </c>
       <c r="O71" t="n">
-        <v>26.79245236277456</v>
+        <v>26.79245236277455</v>
       </c>
       <c r="P71" t="n">
-        <v>29.10552908881271</v>
+        <v>29.10552908881269</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.01056234969156211</v>
+        <v>0.01056234969156222</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1504679285715398</v>
+        <v>0.1504679285715451</v>
       </c>
       <c r="S71" t="n">
-        <v>0.1211024891770516</v>
+        <v>0.1211024891770563</v>
       </c>
       <c r="T71" t="n">
-        <v>0.1150686062483744</v>
+        <v>0.1150686062483779</v>
       </c>
       <c r="U71" t="n">
-        <v>0.0418241236779357</v>
+        <v>0.04182412367793573</v>
       </c>
       <c r="V71" t="n">
-        <v>0.1023212033916222</v>
+        <v>0.1023212033916257</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002518300000005524</v>
+        <v>0.001861900000022843</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6319,7 +6319,7 @@
         <v>13.46911553291059</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02616650505054807</v>
+        <v>0.02616650505053535</v>
       </c>
       <c r="F72" t="n">
         <v>19.83791403052944</v>
@@ -6349,28 +6349,28 @@
         <v>5.091810049838018</v>
       </c>
       <c r="O72" t="n">
-        <v>71.20288528587655</v>
+        <v>71.20288528587658</v>
       </c>
       <c r="P72" t="n">
-        <v>5.019674219407435</v>
+        <v>5.019674219407436</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.009046842259859257</v>
+        <v>0.009046842259843356</v>
       </c>
       <c r="R72" t="n">
-        <v>0.1647126205497753</v>
+        <v>0.1647126205493194</v>
       </c>
       <c r="S72" t="n">
-        <v>0.06788943421820012</v>
+        <v>0.06788943421801706</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1154016638112752</v>
+        <v>0.1154016638109561</v>
       </c>
       <c r="U72" t="n">
-        <v>0.04036561283042758</v>
+        <v>0.04036561283042747</v>
       </c>
       <c r="V72" t="n">
-        <v>0.05844459824174474</v>
+        <v>0.05844459824173526</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.005681099999989669</v>
+        <v>0.004220500000002403</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6404,10 +6404,10 @@
         <v>0.01369960177788641</v>
       </c>
       <c r="F73" t="n">
-        <v>20.07818913509833</v>
+        <v>20.07818913509834</v>
       </c>
       <c r="G73" t="n">
-        <v>33.9345024994484</v>
+        <v>33.93450249944841</v>
       </c>
       <c r="H73" t="n">
         <v>7.479709572681077</v>
@@ -6434,25 +6434,25 @@
         <v>13.94677163369435</v>
       </c>
       <c r="P73" t="n">
-        <v>25.66532344678247</v>
+        <v>25.66532344678248</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.009956984798740293</v>
+        <v>0.009956984798740364</v>
       </c>
       <c r="R73" t="n">
-        <v>0.1282981152234899</v>
+        <v>0.1282981152234944</v>
       </c>
       <c r="S73" t="n">
-        <v>0.06133054789374222</v>
+        <v>0.06133054789374424</v>
       </c>
       <c r="T73" t="n">
-        <v>0.1648037171998465</v>
+        <v>0.1648037171998484</v>
       </c>
       <c r="U73" t="n">
-        <v>0.03915853411911443</v>
+        <v>0.03915853411911445</v>
       </c>
       <c r="V73" t="n">
-        <v>0.07416225669350467</v>
+        <v>0.07416225669350492</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002233599999996727</v>
+        <v>0.001595499999979211</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6516,25 +6516,25 @@
         <v>10.54284822269741</v>
       </c>
       <c r="P74" t="n">
-        <v>30.77789167742578</v>
+        <v>30.77789167742577</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.01016982384885468</v>
+        <v>0.01016982384885482</v>
       </c>
       <c r="R74" t="n">
-        <v>0.1537756958915917</v>
+        <v>0.1537756958915902</v>
       </c>
       <c r="S74" t="n">
-        <v>0.06104165342975225</v>
+        <v>0.06104165342975319</v>
       </c>
       <c r="T74" t="n">
-        <v>0.2324626052923091</v>
+        <v>0.2324626052923145</v>
       </c>
       <c r="U74" t="n">
-        <v>0.04036024922516238</v>
+        <v>0.04036024922516232</v>
       </c>
       <c r="V74" t="n">
-        <v>0.05025777234259563</v>
+        <v>0.05025777234259445</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002236899999999764</v>
+        <v>0.00161469999997621</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6601,16 +6601,16 @@
         <v>17.09919862468269</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.009905506164163186</v>
+        <v>0.009905506164163925</v>
       </c>
       <c r="R75" t="n">
-        <v>0.1377134388122665</v>
+        <v>0.1377134388122961</v>
       </c>
       <c r="S75" t="n">
-        <v>0.1030718242169394</v>
+        <v>0.103071824216961</v>
       </c>
       <c r="T75" t="n">
-        <v>0.03738352074351769</v>
+        <v>0.03738352074351874</v>
       </c>
       <c r="U75" t="n">
         <v>0.03642816194179804</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002505899999988515</v>
+        <v>0.00190029999998842</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6650,10 +6650,10 @@
         <v>359.9819155400361</v>
       </c>
       <c r="F76" t="n">
-        <v>19.96646141696532</v>
+        <v>19.96646141696531</v>
       </c>
       <c r="G76" t="n">
-        <v>36.42170015656271</v>
+        <v>36.42170015656269</v>
       </c>
       <c r="H76" t="n">
         <v>12.37244686962897</v>
@@ -6683,22 +6683,22 @@
         <v>30.94988391679887</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.0107022669521897</v>
+        <v>0.01070226695218956</v>
       </c>
       <c r="R76" t="n">
-        <v>0.1495829297098705</v>
+        <v>0.1495829297098699</v>
       </c>
       <c r="S76" t="n">
-        <v>0.09629231158048832</v>
+        <v>0.09629231158048616</v>
       </c>
       <c r="T76" t="n">
-        <v>0.1629382650471297</v>
+        <v>0.162938265047126</v>
       </c>
       <c r="U76" t="n">
-        <v>0.03642154991364015</v>
+        <v>0.03642154991364006</v>
       </c>
       <c r="V76" t="n">
-        <v>0.01555218720663998</v>
+        <v>0.0155521872066393</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.00211160000000632</v>
+        <v>0.001582799999994222</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6765,19 +6765,19 @@
         <v>17.56516587317284</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.009332915228762511</v>
+        <v>0.009332915228762305</v>
       </c>
       <c r="R77" t="n">
-        <v>0.09871105847110738</v>
+        <v>0.0987110584711101</v>
       </c>
       <c r="S77" t="n">
-        <v>0.0526200265364285</v>
+        <v>0.05262002653642863</v>
       </c>
       <c r="T77" t="n">
-        <v>0.09388554060318505</v>
+        <v>0.09388554060318223</v>
       </c>
       <c r="U77" t="n">
-        <v>0.03833885421909582</v>
+        <v>0.03833885421909589</v>
       </c>
       <c r="V77" t="n">
         <v>0.1054367314918512</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.003882299999986571</v>
+        <v>0.001721500000002152</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6814,13 +6814,13 @@
         <v>359.9857141830481</v>
       </c>
       <c r="F78" t="n">
-        <v>19.9677910675499</v>
+        <v>19.96779106754991</v>
       </c>
       <c r="G78" t="n">
         <v>55.98155002114894</v>
       </c>
       <c r="H78" t="n">
-        <v>12.81916644569423</v>
+        <v>12.81916644569424</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6844,25 +6844,25 @@
         <v>28.19562374604232</v>
       </c>
       <c r="P78" t="n">
-        <v>29.45243825151794</v>
+        <v>29.45243825151795</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.01078589234361972</v>
+        <v>0.01078589234361938</v>
       </c>
       <c r="R78" t="n">
-        <v>0.1573826747295442</v>
+        <v>0.1573826747295348</v>
       </c>
       <c r="S78" t="n">
-        <v>0.1301814792557267</v>
+        <v>0.1301814792557167</v>
       </c>
       <c r="T78" t="n">
-        <v>0.1115332144823681</v>
+        <v>0.111533214482361</v>
       </c>
       <c r="U78" t="n">
-        <v>0.03813885414319434</v>
+        <v>0.03813885414319425</v>
       </c>
       <c r="V78" t="n">
-        <v>0.01159888766337471</v>
+        <v>0.01159888766337362</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.00311940000000277</v>
+        <v>0.001895900000022266</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6926,25 +6926,25 @@
         <v>41.62479204260152</v>
       </c>
       <c r="P79" t="n">
-        <v>6.635916524682743</v>
+        <v>6.635916524682746</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.00880603518642932</v>
+        <v>0.008806035186428137</v>
       </c>
       <c r="R79" t="n">
-        <v>0.09574438303144724</v>
+        <v>0.0957443830314211</v>
       </c>
       <c r="S79" t="n">
-        <v>0.04844756742036859</v>
+        <v>0.04844756742035596</v>
       </c>
       <c r="T79" t="n">
-        <v>0.04032783670064721</v>
+        <v>0.04032783670063951</v>
       </c>
       <c r="U79" t="n">
-        <v>0.03994581873934865</v>
+        <v>0.03994581873934863</v>
       </c>
       <c r="V79" t="n">
-        <v>0.009953567024918768</v>
+        <v>0.009953567024919249</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.005109200000006808</v>
+        <v>0.002507299999990664</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7011,19 +7011,19 @@
         <v>30.84608108665298</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.009528162436392163</v>
+        <v>0.009528162436392066</v>
       </c>
       <c r="R80" t="n">
         <v>0.1952131060007785</v>
       </c>
       <c r="S80" t="n">
-        <v>0.04281372895633109</v>
+        <v>0.0428137289563305</v>
       </c>
       <c r="T80" t="n">
-        <v>0.3242568614879493</v>
+        <v>0.3242568614879432</v>
       </c>
       <c r="U80" t="n">
-        <v>0.04017327689459695</v>
+        <v>0.0401732768945969</v>
       </c>
       <c r="V80" t="n">
         <v>0.05428643862786933</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002004400000004125</v>
+        <v>0.001475200000015775</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7093,19 +7093,19 @@
         <v>21.1242766218452</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.01018348838691062</v>
+        <v>0.01018348838691054</v>
       </c>
       <c r="R81" t="n">
-        <v>0.1355432378825235</v>
+        <v>0.1355432378825243</v>
       </c>
       <c r="S81" t="n">
-        <v>0.1029191239179593</v>
+        <v>0.1029191239179594</v>
       </c>
       <c r="T81" t="n">
-        <v>0.05561152707104176</v>
+        <v>0.05561152707104137</v>
       </c>
       <c r="U81" t="n">
-        <v>0.03774201427999042</v>
+        <v>0.03774201427999034</v>
       </c>
       <c r="V81" t="n">
         <v>0.08796397973477368</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002586799999988898</v>
+        <v>0.002622900000005757</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7142,7 +7142,7 @@
         <v>359.992147879315</v>
       </c>
       <c r="F82" t="n">
-        <v>19.99060965214155</v>
+        <v>19.99060965214156</v>
       </c>
       <c r="G82" t="n">
         <v>94.24994472425365</v>
@@ -7175,22 +7175,22 @@
         <v>22.03511619061958</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.01026995821202963</v>
+        <v>0.01026995821202746</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1553194299450306</v>
+        <v>0.1553194299449595</v>
       </c>
       <c r="S82" t="n">
-        <v>0.1352284945764747</v>
+        <v>0.135228494576408</v>
       </c>
       <c r="T82" t="n">
-        <v>0.03967875321780398</v>
+        <v>0.03967875321780313</v>
       </c>
       <c r="U82" t="n">
-        <v>0.03819152831307102</v>
+        <v>0.03819152831307106</v>
       </c>
       <c r="V82" t="n">
-        <v>0.0315492033866025</v>
+        <v>0.03154920338660289</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002910499999998706</v>
+        <v>0.002021300000023984</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7227,10 +7227,10 @@
         <v>20.18519012499914</v>
       </c>
       <c r="G83" t="n">
-        <v>65.09854129781152</v>
+        <v>65.09854129781148</v>
       </c>
       <c r="H83" t="n">
-        <v>7.030249935553608</v>
+        <v>7.030249935553612</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>22.70876886175419</v>
       </c>
       <c r="P83" t="n">
-        <v>22.89591390545174</v>
+        <v>22.89591390545175</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.01008665683768196</v>
+        <v>0.01008665683768171</v>
       </c>
       <c r="R83" t="n">
-        <v>0.1249153789240352</v>
+        <v>0.1249153789240304</v>
       </c>
       <c r="S83" t="n">
-        <v>0.07972011767307853</v>
+        <v>0.07972011767307489</v>
       </c>
       <c r="T83" t="n">
-        <v>0.09919122369641102</v>
+        <v>0.09919122369640823</v>
       </c>
       <c r="U83" t="n">
-        <v>0.04046783830893833</v>
+        <v>0.04046783830893836</v>
       </c>
       <c r="V83" t="n">
-        <v>0.06232821940482693</v>
+        <v>0.06232821940482548</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002315700000011134</v>
+        <v>0.001615600000008044</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7306,10 +7306,10 @@
         <v>359.9668533554664</v>
       </c>
       <c r="F84" t="n">
-        <v>19.98720025973409</v>
+        <v>19.98720025973407</v>
       </c>
       <c r="G84" t="n">
-        <v>49.15487304884905</v>
+        <v>49.15487304884901</v>
       </c>
       <c r="H84" t="n">
         <v>10.82098327769833</v>
@@ -7336,25 +7336,25 @@
         <v>23.00671656523841</v>
       </c>
       <c r="P84" t="n">
-        <v>28.09832564812366</v>
+        <v>28.09832564812365</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.01057731358966488</v>
+        <v>0.01057731358966469</v>
       </c>
       <c r="R84" t="n">
-        <v>0.143909648978099</v>
+        <v>0.1439096489781002</v>
       </c>
       <c r="S84" t="n">
-        <v>0.1018393568707255</v>
+        <v>0.1018393568707244</v>
       </c>
       <c r="T84" t="n">
-        <v>0.124257285178219</v>
+        <v>0.1242572851782157</v>
       </c>
       <c r="U84" t="n">
-        <v>0.0431121182509947</v>
+        <v>0.04311211825099456</v>
       </c>
       <c r="V84" t="n">
-        <v>0.05758329206895881</v>
+        <v>0.05758329206895897</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002306399999994824</v>
+        <v>0.002253400000000738</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7418,25 +7418,25 @@
         <v>22.1762874635767</v>
       </c>
       <c r="P85" t="n">
-        <v>28.56751494819877</v>
+        <v>28.56751494819878</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.01052247541466343</v>
+        <v>0.01052247541466309</v>
       </c>
       <c r="R85" t="n">
-        <v>0.1432897103790879</v>
+        <v>0.1432897103790992</v>
       </c>
       <c r="S85" t="n">
-        <v>0.1002016067977186</v>
+        <v>0.100201606797722</v>
       </c>
       <c r="T85" t="n">
-        <v>0.1308046074444227</v>
+        <v>0.1308046074444195</v>
       </c>
       <c r="U85" t="n">
-        <v>0.03960037401472322</v>
+        <v>0.03960037401472325</v>
       </c>
       <c r="V85" t="n">
-        <v>0.04541120763723004</v>
+        <v>0.04541120763722924</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002168299999993906</v>
+        <v>0.001648299999999381</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
@@ -7470,13 +7470,13 @@
         <v>0.0566465656272912</v>
       </c>
       <c r="F86" t="n">
-        <v>20.14224587162279</v>
+        <v>20.1422458716228</v>
       </c>
       <c r="G86" t="n">
-        <v>8.18719500912327</v>
+        <v>8.187195009123283</v>
       </c>
       <c r="H86" t="n">
-        <v>7.378584054220373</v>
+        <v>7.378584054220364</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>26.40396462964071</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.008889700022628063</v>
+        <v>0.008889700022628075</v>
       </c>
       <c r="R86" t="n">
-        <v>0.1871511624470429</v>
+        <v>0.1871511624470446</v>
       </c>
       <c r="S86" t="n">
-        <v>0.0342414751060211</v>
+        <v>0.03424147510602091</v>
       </c>
       <c r="T86" t="n">
         <v>0.3041768500884813</v>
       </c>
       <c r="U86" t="n">
-        <v>0.04469850945724133</v>
+        <v>0.04469850945724131</v>
       </c>
       <c r="V86" t="n">
-        <v>0.03533641027818907</v>
+        <v>0.03533641027819205</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001985200000007126</v>
+        <v>0.001470600000004652</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7552,13 +7552,13 @@
         <v>0.01282721982973088</v>
       </c>
       <c r="F87" t="n">
-        <v>20.01244665069002</v>
+        <v>20.01244665069001</v>
       </c>
       <c r="G87" t="n">
         <v>111.5852703966414</v>
       </c>
       <c r="H87" t="n">
-        <v>9.112772487226531</v>
+        <v>9.112772487226524</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7579,28 +7579,28 @@
         <v>17.50678391245108</v>
       </c>
       <c r="O87" t="n">
-        <v>40.30532129700944</v>
+        <v>40.30532129700942</v>
       </c>
       <c r="P87" t="n">
-        <v>17.53604839378118</v>
+        <v>17.53604839378117</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.009810107923238481</v>
+        <v>0.009810107923239705</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1331343267462452</v>
+        <v>0.1331343267462937</v>
       </c>
       <c r="S87" t="n">
-        <v>0.09972441999758229</v>
+        <v>0.0997244199976178</v>
       </c>
       <c r="T87" t="n">
-        <v>0.03751147346236505</v>
+        <v>0.03751147346236562</v>
       </c>
       <c r="U87" t="n">
-        <v>0.04082958592817881</v>
+        <v>0.04082958592817889</v>
       </c>
       <c r="V87" t="n">
-        <v>0.009230555851610272</v>
+        <v>0.009230555851615087</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002500800000007075</v>
+        <v>0.001816700000006222</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7637,10 +7637,10 @@
         <v>20.00939866032063</v>
       </c>
       <c r="G88" t="n">
-        <v>37.06989163374826</v>
+        <v>37.06989163374825</v>
       </c>
       <c r="H88" t="n">
-        <v>5.380954861578326</v>
+        <v>5.380954861578329</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>23.10620226522112</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.009525973274275229</v>
+        <v>0.009525973274275306</v>
       </c>
       <c r="R88" t="n">
-        <v>0.1190970036038369</v>
+        <v>0.1190970036038381</v>
       </c>
       <c r="S88" t="n">
-        <v>0.05108565322568991</v>
+        <v>0.05108565322569108</v>
       </c>
       <c r="T88" t="n">
-        <v>0.1612464772297444</v>
+        <v>0.1612464772297456</v>
       </c>
       <c r="U88" t="n">
-        <v>0.04053220820280839</v>
+        <v>0.0405322082028084</v>
       </c>
       <c r="V88" t="n">
-        <v>0.07651410448602336</v>
+        <v>0.07651410448602119</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003670200000001955</v>
+        <v>0.001752000000010412</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.005283352735192288</v>
       </c>
       <c r="F89" t="n">
-        <v>19.99734307885986</v>
+        <v>19.99734307885985</v>
       </c>
       <c r="G89" t="n">
         <v>118.1890354677727</v>
       </c>
       <c r="H89" t="n">
-        <v>14.44656412501306</v>
+        <v>14.44656412501305</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7743,28 +7743,28 @@
         <v>18.86895112245551</v>
       </c>
       <c r="O89" t="n">
-        <v>60.80771862296297</v>
+        <v>60.80771862296299</v>
       </c>
       <c r="P89" t="n">
-        <v>18.84566305258917</v>
+        <v>18.84566305258916</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.01019452562759029</v>
+        <v>0.01019452562759039</v>
       </c>
       <c r="R89" t="n">
-        <v>0.1932699519850918</v>
+        <v>0.1932699519851159</v>
       </c>
       <c r="S89" t="n">
-        <v>0.1744973636908994</v>
+        <v>0.1744973636909186</v>
       </c>
       <c r="T89" t="n">
-        <v>0.07572389554265983</v>
+        <v>0.07572389554266971</v>
       </c>
       <c r="U89" t="n">
         <v>0.04037537150181905</v>
       </c>
       <c r="V89" t="n">
-        <v>0.006380254311077924</v>
+        <v>0.006380254311080094</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.004813699999999699</v>
+        <v>0.003434800000007954</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7804,7 +7804,7 @@
         <v>116.4731740986729</v>
       </c>
       <c r="H90" t="n">
-        <v>9.201642876807512</v>
+        <v>9.201642876807508</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7825,28 +7825,28 @@
         <v>16.60650249154164</v>
       </c>
       <c r="O90" t="n">
-        <v>41.14083024998696</v>
+        <v>41.14083024998695</v>
       </c>
       <c r="P90" t="n">
-        <v>16.8026478696656</v>
+        <v>16.80264786966559</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.00984403318655455</v>
+        <v>0.009844033186555119</v>
       </c>
       <c r="R90" t="n">
-        <v>0.1338001687626131</v>
+        <v>0.1338001687626436</v>
       </c>
       <c r="S90" t="n">
-        <v>0.09795063665230645</v>
+        <v>0.09795063665232688</v>
       </c>
       <c r="T90" t="n">
-        <v>0.03746068144121451</v>
+        <v>0.03746068144121587</v>
       </c>
       <c r="U90" t="n">
-        <v>0.03984504698383898</v>
+        <v>0.03984504698383901</v>
       </c>
       <c r="V90" t="n">
-        <v>0.05687920601336737</v>
+        <v>0.05687920601336604</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004337800000001835</v>
+        <v>0.001990599999999176</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7883,10 +7883,10 @@
         <v>20.00028501061133</v>
       </c>
       <c r="G91" t="n">
-        <v>90.88992040165478</v>
+        <v>90.88992040165473</v>
       </c>
       <c r="H91" t="n">
-        <v>6.006589708230933</v>
+        <v>6.006589708230937</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7910,25 +7910,25 @@
         <v>25.91834309820461</v>
       </c>
       <c r="P91" t="n">
-        <v>19.2034950001391</v>
+        <v>19.20349500013911</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.009695814012732994</v>
+        <v>0.009695814012732736</v>
       </c>
       <c r="R91" t="n">
-        <v>0.1136258039184493</v>
+        <v>0.1136258039184471</v>
       </c>
       <c r="S91" t="n">
-        <v>0.07330160689377689</v>
+        <v>0.07330160689377389</v>
       </c>
       <c r="T91" t="n">
-        <v>0.07202221090668022</v>
+        <v>0.07202221090667851</v>
       </c>
       <c r="U91" t="n">
-        <v>0.0415799919540339</v>
+        <v>0.04157999195403374</v>
       </c>
       <c r="V91" t="n">
-        <v>0.06487521046996272</v>
+        <v>0.06487521046995923</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002431400000006079</v>
+        <v>0.001875899999987496</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -7968,7 +7968,7 @@
         <v>26.61866015048682</v>
       </c>
       <c r="H92" t="n">
-        <v>5.051232413556646</v>
+        <v>5.051232413556644</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7998,10 +7998,10 @@
         <v>0.009105109441465271</v>
       </c>
       <c r="R92" t="n">
-        <v>0.125584042154714</v>
+        <v>0.1255840421547132</v>
       </c>
       <c r="S92" t="n">
-        <v>0.04225054139554431</v>
+        <v>0.04225054139554423</v>
       </c>
       <c r="T92" t="n">
         <v>0.1903223483432313</v>
@@ -8010,7 +8010,7 @@
         <v>0.04286062645412273</v>
       </c>
       <c r="V92" t="n">
-        <v>0.113881948199318</v>
+        <v>0.1138819481993171</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.003411499999998568</v>
+        <v>0.001659200000005967</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.967466526158</v>
       </c>
       <c r="F93" t="n">
-        <v>19.87664696861568</v>
+        <v>19.87664696861569</v>
       </c>
       <c r="G93" t="n">
         <v>36.03846057097815</v>
       </c>
       <c r="H93" t="n">
-        <v>6.950104195069223</v>
+        <v>6.950104195069229</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>14.18178059675755</v>
       </c>
       <c r="P93" t="n">
-        <v>24.75886019535119</v>
+        <v>24.75886019535121</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.009786849465254191</v>
+        <v>0.009786849465254379</v>
       </c>
       <c r="R93" t="n">
-        <v>0.1231766721044164</v>
+        <v>0.1231766721044161</v>
       </c>
       <c r="S93" t="n">
-        <v>0.05937457144415941</v>
+        <v>0.05937457144416115</v>
       </c>
       <c r="T93" t="n">
-        <v>0.1566407782674444</v>
+        <v>0.1566407782674488</v>
       </c>
       <c r="U93" t="n">
-        <v>0.037621046558946</v>
+        <v>0.03762104655894589</v>
       </c>
       <c r="V93" t="n">
-        <v>0.01229380436733667</v>
+        <v>0.01229380436733772</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002178200000003017</v>
+        <v>0.00162650000001463</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8153,28 +8153,28 @@
         <v>7.253282679324334</v>
       </c>
       <c r="O94" t="n">
-        <v>62.25470753479979</v>
+        <v>62.25470753479978</v>
       </c>
       <c r="P94" t="n">
-        <v>7.024541536969459</v>
+        <v>7.024541536969463</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.009261699454124313</v>
+        <v>0.009261699454121315</v>
       </c>
       <c r="R94" t="n">
-        <v>0.1437250921243565</v>
+        <v>0.1437250921242757</v>
       </c>
       <c r="S94" t="n">
-        <v>0.07337278530142242</v>
+        <v>0.07337278530138244</v>
       </c>
       <c r="T94" t="n">
-        <v>0.08600892929138602</v>
+        <v>0.08600892929133826</v>
       </c>
       <c r="U94" t="n">
-        <v>0.03557134807454822</v>
+        <v>0.03557134807454813</v>
       </c>
       <c r="V94" t="n">
-        <v>0.1194477437335314</v>
+        <v>0.1194477437335235</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.00691009999999892</v>
+        <v>0.004024400000020023</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8235,28 +8235,28 @@
         <v>18.82125777249706</v>
       </c>
       <c r="O95" t="n">
-        <v>45.88864527107274</v>
+        <v>45.88864527107275</v>
       </c>
       <c r="P95" t="n">
         <v>18.68818586442599</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.009950223796874678</v>
+        <v>0.009950223796874585</v>
       </c>
       <c r="R95" t="n">
-        <v>0.1482091878557696</v>
+        <v>0.1482091878557591</v>
       </c>
       <c r="S95" t="n">
-        <v>0.1218521917492947</v>
+        <v>0.1218521917492873</v>
       </c>
       <c r="T95" t="n">
-        <v>0.03677117379358535</v>
+        <v>0.03677117379358438</v>
       </c>
       <c r="U95" t="n">
-        <v>0.03600600301295406</v>
+        <v>0.03600600301295424</v>
       </c>
       <c r="V95" t="n">
-        <v>0.03513204622146676</v>
+        <v>0.0351320462214678</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002673799999996618</v>
+        <v>0.002003799999982903</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>0.00748321357644373</v>
       </c>
       <c r="F96" t="n">
-        <v>19.894237700799</v>
+        <v>19.89423770079899</v>
       </c>
       <c r="G96" t="n">
         <v>129.4522629802669</v>
       </c>
       <c r="H96" t="n">
-        <v>10.21082942498926</v>
+        <v>10.21082942498925</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8320,25 +8320,25 @@
         <v>48.24863247070584</v>
       </c>
       <c r="P96" t="n">
-        <v>14.25424116408547</v>
+        <v>14.25424116408546</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.009567635184986625</v>
+        <v>0.009567635184986429</v>
       </c>
       <c r="R96" t="n">
-        <v>0.1350806804908605</v>
+        <v>0.1350806804908612</v>
       </c>
       <c r="S96" t="n">
-        <v>0.09650227931902078</v>
+        <v>0.09650227931901978</v>
       </c>
       <c r="T96" t="n">
-        <v>0.04481660412577926</v>
+        <v>0.04481660412578059</v>
       </c>
       <c r="U96" t="n">
-        <v>0.03984259254267558</v>
+        <v>0.03984259254267557</v>
       </c>
       <c r="V96" t="n">
-        <v>0.03852672163795502</v>
+        <v>0.03852672163795862</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.005745000000004552</v>
+        <v>0.00368530000000078</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8375,10 +8375,10 @@
         <v>20.00770054047764</v>
       </c>
       <c r="G97" t="n">
-        <v>40.94301193527917</v>
+        <v>40.94301193527918</v>
       </c>
       <c r="H97" t="n">
-        <v>5.34118258821951</v>
+        <v>5.341182588219509</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8399,28 +8399,28 @@
         <v>22.79599817688023</v>
       </c>
       <c r="O97" t="n">
-        <v>13.5714258696034</v>
+        <v>13.57142586960339</v>
       </c>
       <c r="P97" t="n">
         <v>22.87137896937898</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.009574195063347966</v>
+        <v>0.009574195063348412</v>
       </c>
       <c r="R97" t="n">
-        <v>0.1171483476942329</v>
+        <v>0.1171483476942317</v>
       </c>
       <c r="S97" t="n">
-        <v>0.05313177611836536</v>
+        <v>0.05313177611836745</v>
       </c>
       <c r="T97" t="n">
-        <v>0.1519469949095579</v>
+        <v>0.1519469949095669</v>
       </c>
       <c r="U97" t="n">
-        <v>0.03775654599842031</v>
+        <v>0.03775654599842029</v>
       </c>
       <c r="V97" t="n">
-        <v>0.03663267427787065</v>
+        <v>0.03663267427786267</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002155500000000643</v>
+        <v>0.001661600000005592</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8454,13 +8454,13 @@
         <v>0.0475456327827244</v>
       </c>
       <c r="F98" t="n">
-        <v>19.93504128080766</v>
+        <v>19.93504128080764</v>
       </c>
       <c r="G98" t="n">
-        <v>38.84870037557459</v>
+        <v>38.84870037557456</v>
       </c>
       <c r="H98" t="n">
-        <v>13.64349464132676</v>
+        <v>13.64349464132675</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8484,25 +8484,25 @@
         <v>20.85728733909124</v>
       </c>
       <c r="P98" t="n">
-        <v>32.17804158078807</v>
+        <v>32.17804158078805</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01083566673968263</v>
+        <v>0.01083566673968279</v>
       </c>
       <c r="R98" t="n">
-        <v>0.1562995917100278</v>
+        <v>0.1562995917100402</v>
       </c>
       <c r="S98" t="n">
-        <v>0.1104335503786384</v>
+        <v>0.1104335503786472</v>
       </c>
       <c r="T98" t="n">
-        <v>0.1605972432179026</v>
+        <v>0.1605972432179096</v>
       </c>
       <c r="U98" t="n">
-        <v>0.03869610156259063</v>
+        <v>0.03869610156259079</v>
       </c>
       <c r="V98" t="n">
-        <v>0.07540376033082048</v>
+        <v>0.07540376033082113</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002239400000007663</v>
+        <v>0.001597799999984773</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8536,13 +8536,13 @@
         <v>0.0388716377991991</v>
       </c>
       <c r="F99" t="n">
-        <v>19.81273814347272</v>
+        <v>19.81273814347271</v>
       </c>
       <c r="G99" t="n">
         <v>150.8178173610343</v>
       </c>
       <c r="H99" t="n">
-        <v>14.46238719289836</v>
+        <v>14.46238719289835</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8563,28 +8563,28 @@
         <v>9.999091878929827</v>
       </c>
       <c r="O99" t="n">
-        <v>78.03415844474186</v>
+        <v>78.03415844474183</v>
       </c>
       <c r="P99" t="n">
-        <v>9.86017067092552</v>
+        <v>9.860170670925514</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01008004916249487</v>
+        <v>0.01008004916250063</v>
       </c>
       <c r="R99" t="n">
-        <v>0.2170779894538811</v>
+        <v>0.217077989454082</v>
       </c>
       <c r="S99" t="n">
-        <v>0.1300010610809152</v>
+        <v>0.1300010610810336</v>
       </c>
       <c r="T99" t="n">
-        <v>0.1560322211902329</v>
+        <v>0.1560322211903772</v>
       </c>
       <c r="U99" t="n">
-        <v>0.03931886064363672</v>
+        <v>0.03931886064363689</v>
       </c>
       <c r="V99" t="n">
-        <v>0.06608937253198394</v>
+        <v>0.06608937253198664</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.005630600000003483</v>
+        <v>0.004789799999997513</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8618,13 +8618,13 @@
         <v>0.06302891943845959</v>
       </c>
       <c r="F100" t="n">
-        <v>19.6861929416356</v>
+        <v>19.68619294163559</v>
       </c>
       <c r="G100" t="n">
         <v>132.4129072757878</v>
       </c>
       <c r="H100" t="n">
-        <v>9.588506314814424</v>
+        <v>9.588506314814421</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>46.13977129205379</v>
       </c>
       <c r="P100" t="n">
-        <v>13.43515841650392</v>
+        <v>13.43515841650391</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.009296558450701955</v>
+        <v>0.009296558450701865</v>
       </c>
       <c r="R100" t="n">
-        <v>0.1248271125890418</v>
+        <v>0.1248271125890315</v>
       </c>
       <c r="S100" t="n">
-        <v>0.08621369053465977</v>
+        <v>0.08621369053465437</v>
       </c>
       <c r="T100" t="n">
-        <v>0.04117686048115263</v>
+        <v>0.04117686048114941</v>
       </c>
       <c r="U100" t="n">
-        <v>0.04346954571734838</v>
+        <v>0.04346954571734844</v>
       </c>
       <c r="V100" t="n">
-        <v>0.1232755034187394</v>
+        <v>0.123275503418741</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.004977400000001353</v>
+        <v>0.002560700000003635</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8700,13 +8700,13 @@
         <v>359.9774530119697</v>
       </c>
       <c r="F101" t="n">
-        <v>20.10034238214626</v>
+        <v>20.10034238214624</v>
       </c>
       <c r="G101" t="n">
         <v>120.8657596390322</v>
       </c>
       <c r="H101" t="n">
-        <v>8.925141022894891</v>
+        <v>8.925141022894882</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8727,28 +8727,28 @@
         <v>15.73131543785253</v>
       </c>
       <c r="O101" t="n">
-        <v>40.81892859673046</v>
+        <v>40.81892859673045</v>
       </c>
       <c r="P101" t="n">
-        <v>15.84261101423093</v>
+        <v>15.84261101423092</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.009730692043354028</v>
+        <v>0.009730692043354019</v>
       </c>
       <c r="R101" t="n">
-        <v>0.1281978362840172</v>
+        <v>0.1281978362840276</v>
       </c>
       <c r="S101" t="n">
-        <v>0.09119904318891166</v>
+        <v>0.09119904318891764</v>
       </c>
       <c r="T101" t="n">
-        <v>0.03727831008983614</v>
+        <v>0.03727831008983615</v>
       </c>
       <c r="U101" t="n">
-        <v>0.03887870552312563</v>
+        <v>0.03887870552312567</v>
       </c>
       <c r="V101" t="n">
-        <v>0.03869111431467289</v>
+        <v>0.03869111431466888</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002692099999990205</v>
+        <v>0.001992500000000064</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>
